--- a/daveydark/src/Database.xlsx
+++ b/daveydark/src/Database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\APEX -hackathon\.venv\APEX-Hackathon\daveydark\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEA95CF8-3EB3-4AD6-937B-59598719B9D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06716A21-19F3-4F7F-B0BF-62807AF5374F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2709" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2770" uniqueCount="478">
   <si>
     <t>email</t>
   </si>
@@ -1462,6 +1462,12 @@
   </si>
   <si>
     <t>qq</t>
+  </si>
+  <si>
+    <t>notification</t>
+  </si>
+  <si>
+    <t>hello</t>
   </si>
 </sst>
 </file>
@@ -1807,10 +1813,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J62"/>
+  <dimension ref="A1:K62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L53" sqref="L53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1824,7 +1830,7 @@
     <col min="9" max="9" width="10.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" customHeight="1">
+    <row r="1" spans="1:11" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1855,8 +1861,11 @@
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K1" s="2" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -1887,8 +1896,11 @@
       <c r="J2" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K2" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -1919,8 +1931,11 @@
       <c r="J3" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K3" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -1951,8 +1966,11 @@
       <c r="J4" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K4" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>25</v>
       </c>
@@ -1983,8 +2001,11 @@
       <c r="J5" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K5" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>29</v>
       </c>
@@ -2015,8 +2036,11 @@
       <c r="J6" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K6" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>33</v>
       </c>
@@ -2047,8 +2071,11 @@
       <c r="J7" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K7" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>37</v>
       </c>
@@ -2079,8 +2106,11 @@
       <c r="J8" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K8" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>41</v>
       </c>
@@ -2111,8 +2141,11 @@
       <c r="J9" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K9" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>45</v>
       </c>
@@ -2143,8 +2176,11 @@
       <c r="J10" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K10" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>49</v>
       </c>
@@ -2175,8 +2211,11 @@
       <c r="J11" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K11" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>53</v>
       </c>
@@ -2207,8 +2246,11 @@
       <c r="J12" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K12" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15.75" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>58</v>
       </c>
@@ -2239,8 +2281,11 @@
       <c r="J13" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K13" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>62</v>
       </c>
@@ -2271,8 +2316,11 @@
       <c r="J14" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K14" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>66</v>
       </c>
@@ -2303,8 +2351,11 @@
       <c r="J15" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K15" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15.75" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>70</v>
       </c>
@@ -2335,8 +2386,11 @@
       <c r="J16" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K16" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="15.75" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>74</v>
       </c>
@@ -2367,8 +2421,11 @@
       <c r="J17" s="2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K17" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="15.75" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>79</v>
       </c>
@@ -2399,8 +2456,11 @@
       <c r="J18" s="2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K18" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="15.75" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>83</v>
       </c>
@@ -2431,8 +2491,11 @@
       <c r="J19" s="2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" ht="14.5">
+      <c r="K19" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="14.5">
       <c r="A20" s="1" t="s">
         <v>87</v>
       </c>
@@ -2463,8 +2526,11 @@
       <c r="J20" s="2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" ht="14.5">
+      <c r="K20" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="14.5">
       <c r="A21" s="1" t="s">
         <v>91</v>
       </c>
@@ -2495,8 +2561,11 @@
       <c r="J21" s="2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" ht="14.5">
+      <c r="K21" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="14.5">
       <c r="A22" s="1" t="s">
         <v>95</v>
       </c>
@@ -2527,8 +2596,11 @@
       <c r="J22" s="2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" ht="14.5">
+      <c r="K22" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="14.5">
       <c r="A23" s="1" t="s">
         <v>99</v>
       </c>
@@ -2559,8 +2631,11 @@
       <c r="J23" s="2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" ht="14.5">
+      <c r="K23" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="14.5">
       <c r="A24" s="1" t="s">
         <v>103</v>
       </c>
@@ -2591,8 +2666,11 @@
       <c r="J24" s="2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" ht="14.5">
+      <c r="K24" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="14.5">
       <c r="A25" s="1" t="s">
         <v>107</v>
       </c>
@@ -2623,8 +2701,11 @@
       <c r="J25" s="2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" ht="14.5">
+      <c r="K25" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="14.5">
       <c r="A26" s="1" t="s">
         <v>111</v>
       </c>
@@ -2655,8 +2736,11 @@
       <c r="J26" s="2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" ht="14.5">
+      <c r="K26" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="14.5">
       <c r="A27" s="1" t="s">
         <v>115</v>
       </c>
@@ -2687,8 +2771,11 @@
       <c r="J27" s="2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" ht="14.5">
+      <c r="K27" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="14.5">
       <c r="A28" s="1" t="s">
         <v>119</v>
       </c>
@@ -2719,8 +2806,11 @@
       <c r="J28" s="2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" ht="14.5">
+      <c r="K28" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="14.5">
       <c r="A29" s="1" t="s">
         <v>123</v>
       </c>
@@ -2751,8 +2841,11 @@
       <c r="J29" s="2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" ht="14.5">
+      <c r="K29" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="14.5">
       <c r="A30" s="1" t="s">
         <v>127</v>
       </c>
@@ -2783,8 +2876,11 @@
       <c r="J30" s="2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" ht="14.5">
+      <c r="K30" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="14.5">
       <c r="A31" s="1" t="s">
         <v>131</v>
       </c>
@@ -2815,8 +2911,11 @@
       <c r="J31" s="2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" ht="14.5">
+      <c r="K31" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="14.5">
       <c r="A32" s="1" t="s">
         <v>135</v>
       </c>
@@ -2847,8 +2946,11 @@
       <c r="J32" s="2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" ht="14.5">
+      <c r="K32" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="14.5">
       <c r="A33" s="1" t="s">
         <v>139</v>
       </c>
@@ -2879,8 +2981,11 @@
       <c r="J33" s="2" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" ht="14.5">
+      <c r="K33" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="14.5">
       <c r="A34" s="1" t="s">
         <v>144</v>
       </c>
@@ -2911,8 +3016,11 @@
       <c r="J34" s="2" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" ht="14.5">
+      <c r="K34" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="14.5">
       <c r="A35" s="1" t="s">
         <v>148</v>
       </c>
@@ -2943,8 +3051,11 @@
       <c r="J35" s="2" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" ht="14.5">
+      <c r="K35" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="14.5">
       <c r="A36" s="1" t="s">
         <v>152</v>
       </c>
@@ -2975,8 +3086,11 @@
       <c r="J36" s="2" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" ht="14.5">
+      <c r="K36" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="14.5">
       <c r="A37" s="1" t="s">
         <v>156</v>
       </c>
@@ -3007,8 +3121,11 @@
       <c r="J37" s="2" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" ht="14.5">
+      <c r="K37" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="14.5">
       <c r="A38" s="1" t="s">
         <v>160</v>
       </c>
@@ -3039,8 +3156,11 @@
       <c r="J38" s="2" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" ht="14.5">
+      <c r="K38" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="14.5">
       <c r="A39" s="1" t="s">
         <v>164</v>
       </c>
@@ -3071,8 +3191,11 @@
       <c r="J39" s="2" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" ht="14.5">
+      <c r="K39" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="14.5">
       <c r="A40" s="1" t="s">
         <v>168</v>
       </c>
@@ -3103,8 +3226,11 @@
       <c r="J40" s="2" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" ht="14.5">
+      <c r="K40" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="14.5">
       <c r="A41" s="1" t="s">
         <v>172</v>
       </c>
@@ -3135,8 +3261,11 @@
       <c r="J41" s="2" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" ht="14.5">
+      <c r="K41" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="14.5">
       <c r="A42" s="1" t="s">
         <v>176</v>
       </c>
@@ -3167,8 +3296,11 @@
       <c r="J42" s="2" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" ht="14.5">
+      <c r="K42" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="14.5">
       <c r="A43" s="1" t="s">
         <v>181</v>
       </c>
@@ -3199,8 +3331,11 @@
       <c r="J43" s="2" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" ht="14.5">
+      <c r="K43" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="14.5">
       <c r="A44" s="1" t="s">
         <v>185</v>
       </c>
@@ -3231,8 +3366,11 @@
       <c r="J44" s="2" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" ht="14.5">
+      <c r="K44" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="14.5">
       <c r="A45" s="1" t="s">
         <v>189</v>
       </c>
@@ -3263,8 +3401,11 @@
       <c r="J45" s="2" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" ht="14.5">
+      <c r="K45" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="14.5">
       <c r="A46" s="1" t="s">
         <v>193</v>
       </c>
@@ -3295,8 +3436,11 @@
       <c r="J46" s="2" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" ht="14.5">
+      <c r="K46" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="14.5">
       <c r="A47" s="1" t="s">
         <v>197</v>
       </c>
@@ -3327,8 +3471,11 @@
       <c r="J47" s="2" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" ht="14.5">
+      <c r="K47" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="14.5">
       <c r="A48" s="1" t="s">
         <v>202</v>
       </c>
@@ -3359,8 +3506,11 @@
       <c r="J48" s="2" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" ht="14.5">
+      <c r="K48" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="14.5">
       <c r="A49" s="1" t="s">
         <v>206</v>
       </c>
@@ -3391,8 +3541,11 @@
       <c r="J49" s="2" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" ht="14.5">
+      <c r="K49" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="14.5">
       <c r="A50" s="1" t="s">
         <v>210</v>
       </c>
@@ -3423,8 +3576,11 @@
       <c r="J50" s="2" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" ht="14.5">
+      <c r="K50" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="14.5">
       <c r="A51" s="1" t="s">
         <v>214</v>
       </c>
@@ -3455,8 +3611,11 @@
       <c r="J51" s="2" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" ht="14.5">
+      <c r="K51" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="14.5">
       <c r="A52" s="1" t="s">
         <v>218</v>
       </c>
@@ -3487,8 +3646,11 @@
       <c r="J52" s="2" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" ht="14.5">
+      <c r="K52" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="14.5">
       <c r="A53" s="1" t="s">
         <v>222</v>
       </c>
@@ -3519,8 +3681,11 @@
       <c r="J53" s="2" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" ht="14.5">
+      <c r="K53" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="14.5">
       <c r="A54" s="1" t="s">
         <v>226</v>
       </c>
@@ -3551,8 +3716,11 @@
       <c r="J54" s="2" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" ht="14.5">
+      <c r="K54" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="14.5">
       <c r="A55" s="1" t="s">
         <v>230</v>
       </c>
@@ -3583,8 +3751,11 @@
       <c r="J55" s="2" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" ht="14.5">
+      <c r="K55" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="14.5">
       <c r="A56" s="1" t="s">
         <v>234</v>
       </c>
@@ -3615,8 +3786,11 @@
       <c r="J56" s="2" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" ht="14.5">
+      <c r="K56" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="14.5">
       <c r="A57" s="1" t="s">
         <v>238</v>
       </c>
@@ -3647,8 +3821,11 @@
       <c r="J57" s="2" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" ht="14.5">
+      <c r="K57" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="14.5">
       <c r="A58" s="1" t="s">
         <v>242</v>
       </c>
@@ -3679,8 +3856,11 @@
       <c r="J58" s="2" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" ht="14.5">
+      <c r="K58" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="14.5">
       <c r="A59" s="1" t="s">
         <v>246</v>
       </c>
@@ -3711,8 +3891,11 @@
       <c r="J59" s="2" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" ht="14.5">
+      <c r="K59" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="14.5">
       <c r="A60" s="1" t="s">
         <v>250</v>
       </c>
@@ -3743,8 +3926,11 @@
       <c r="J60" s="2" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" ht="14.5">
+      <c r="K60" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="14.5">
       <c r="A61" s="1" t="s">
         <v>254</v>
       </c>
@@ -3775,8 +3961,11 @@
       <c r="J61" s="2" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" ht="14.5">
+      <c r="K61" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="14.5">
       <c r="B62" s="1"/>
     </row>
   </sheetData>
@@ -17087,7 +17276,7 @@
       </c>
       <c r="G2" s="2">
         <f t="shared" ref="G2:G65" ca="1" si="0">RANDBETWEEN(0,100)</f>
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>16</v>
@@ -17111,7 +17300,7 @@
       </c>
       <c r="G3" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>16</v>
@@ -17135,7 +17324,7 @@
       </c>
       <c r="G4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>16</v>
@@ -17159,7 +17348,7 @@
       </c>
       <c r="G5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>16</v>
@@ -17183,7 +17372,7 @@
       </c>
       <c r="G6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>16</v>
@@ -17207,7 +17396,7 @@
       </c>
       <c r="G7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>16</v>
@@ -17231,7 +17420,7 @@
       </c>
       <c r="G8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>16</v>
@@ -17255,7 +17444,7 @@
       </c>
       <c r="G9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>16</v>
@@ -17279,7 +17468,7 @@
       </c>
       <c r="G10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>16</v>
@@ -17303,7 +17492,7 @@
       </c>
       <c r="G11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>16</v>
@@ -17327,7 +17516,7 @@
       </c>
       <c r="G12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>16</v>
@@ -17351,7 +17540,7 @@
       </c>
       <c r="G13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>16</v>
@@ -17375,7 +17564,7 @@
       </c>
       <c r="G14" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>16</v>
@@ -17399,7 +17588,7 @@
       </c>
       <c r="G15" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>16</v>
@@ -17423,7 +17612,7 @@
       </c>
       <c r="G16" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>16</v>
@@ -17447,7 +17636,7 @@
       </c>
       <c r="G17" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>16</v>
@@ -17471,7 +17660,7 @@
       </c>
       <c r="G18" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>16</v>
@@ -17495,7 +17684,7 @@
       </c>
       <c r="G19" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>16</v>
@@ -17519,7 +17708,7 @@
       </c>
       <c r="G20" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>33</v>
+        <v>97</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>16</v>
@@ -17543,7 +17732,7 @@
       </c>
       <c r="G21" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>16</v>
@@ -17567,7 +17756,7 @@
       </c>
       <c r="G22" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>82</v>
+        <v>11</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>16</v>
@@ -17591,7 +17780,7 @@
       </c>
       <c r="G23" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>16</v>
@@ -17615,7 +17804,7 @@
       </c>
       <c r="G24" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>16</v>
@@ -17639,7 +17828,7 @@
       </c>
       <c r="G25" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>16</v>
@@ -17663,7 +17852,7 @@
       </c>
       <c r="G26" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>16</v>
@@ -17687,7 +17876,7 @@
       </c>
       <c r="G27" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>16</v>
@@ -17711,7 +17900,7 @@
       </c>
       <c r="G28" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>16</v>
@@ -17735,7 +17924,7 @@
       </c>
       <c r="G29" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>97</v>
+        <v>33</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>16</v>
@@ -17759,7 +17948,7 @@
       </c>
       <c r="G30" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>16</v>
@@ -17783,7 +17972,7 @@
       </c>
       <c r="G31" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>16</v>
@@ -17807,7 +17996,7 @@
       </c>
       <c r="G32" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>16</v>
@@ -17831,7 +18020,7 @@
       </c>
       <c r="G33" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>16</v>
@@ -17855,7 +18044,7 @@
       </c>
       <c r="G34" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>16</v>
@@ -17879,7 +18068,7 @@
       </c>
       <c r="G35" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>16</v>
@@ -17903,7 +18092,7 @@
       </c>
       <c r="G36" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>16</v>
@@ -17927,7 +18116,7 @@
       </c>
       <c r="G37" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>16</v>
@@ -17951,7 +18140,7 @@
       </c>
       <c r="G38" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>16</v>
@@ -17975,7 +18164,7 @@
       </c>
       <c r="G39" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>16</v>
@@ -17999,7 +18188,7 @@
       </c>
       <c r="G40" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>48</v>
+        <v>99</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>16</v>
@@ -18023,7 +18212,7 @@
       </c>
       <c r="G41" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>16</v>
@@ -18047,7 +18236,7 @@
       </c>
       <c r="G42" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+        <v>93</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>16</v>
@@ -18071,7 +18260,7 @@
       </c>
       <c r="G43" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>21</v>
+        <v>93</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>16</v>
@@ -18095,7 +18284,7 @@
       </c>
       <c r="G44" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>16</v>
@@ -18119,7 +18308,7 @@
       </c>
       <c r="G45" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>16</v>
@@ -18143,7 +18332,7 @@
       </c>
       <c r="G46" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>16</v>
@@ -18167,7 +18356,7 @@
       </c>
       <c r="G47" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>16</v>
@@ -18191,7 +18380,7 @@
       </c>
       <c r="G48" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="H48" s="2" t="s">
         <v>16</v>
@@ -18215,7 +18404,7 @@
       </c>
       <c r="G49" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="H49" s="2" t="s">
         <v>16</v>
@@ -18239,7 +18428,7 @@
       </c>
       <c r="G50" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>16</v>
@@ -18263,7 +18452,7 @@
       </c>
       <c r="G51" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="H51" s="2" t="s">
         <v>78</v>
@@ -18287,7 +18476,7 @@
       </c>
       <c r="G52" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="H52" s="2" t="s">
         <v>78</v>
@@ -18311,7 +18500,7 @@
       </c>
       <c r="G53" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H53" s="2" t="s">
         <v>78</v>
@@ -18335,7 +18524,7 @@
       </c>
       <c r="G54" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="H54" s="2" t="s">
         <v>78</v>
@@ -18359,7 +18548,7 @@
       </c>
       <c r="G55" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="H55" s="2" t="s">
         <v>78</v>
@@ -18383,7 +18572,7 @@
       </c>
       <c r="G56" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="H56" s="2" t="s">
         <v>78</v>
@@ -18407,7 +18596,7 @@
       </c>
       <c r="G57" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="H57" s="2" t="s">
         <v>78</v>
@@ -18431,7 +18620,7 @@
       </c>
       <c r="G58" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>78</v>
@@ -18455,7 +18644,7 @@
       </c>
       <c r="G59" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H59" s="2" t="s">
         <v>78</v>
@@ -18479,7 +18668,7 @@
       </c>
       <c r="G60" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="H60" s="2" t="s">
         <v>78</v>
@@ -18503,7 +18692,7 @@
       </c>
       <c r="G61" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="H61" s="2" t="s">
         <v>78</v>
@@ -18527,7 +18716,7 @@
       </c>
       <c r="G62" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="H62" s="2" t="s">
         <v>78</v>
@@ -18548,7 +18737,7 @@
       </c>
       <c r="G63" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="H63" s="2" t="s">
         <v>78</v>
@@ -18569,7 +18758,7 @@
       </c>
       <c r="G64" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="H64" s="2" t="s">
         <v>78</v>
@@ -18590,7 +18779,7 @@
       </c>
       <c r="G65" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="H65" s="2" t="s">
         <v>78</v>
@@ -18611,7 +18800,7 @@
       </c>
       <c r="G66" s="2">
         <f t="shared" ref="G66:G81" ca="1" si="1">RANDBETWEEN(0,100)</f>
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H66" s="2" t="s">
         <v>78</v>
@@ -18632,7 +18821,7 @@
       </c>
       <c r="G67" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>87</v>
+        <v>22</v>
       </c>
       <c r="H67" s="2" t="s">
         <v>78</v>
@@ -18653,7 +18842,7 @@
       </c>
       <c r="G68" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="H68" s="2" t="s">
         <v>78</v>
@@ -18674,7 +18863,7 @@
       </c>
       <c r="G69" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="H69" s="2" t="s">
         <v>78</v>
@@ -18695,7 +18884,7 @@
       </c>
       <c r="G70" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="H70" s="2" t="s">
         <v>78</v>
@@ -18716,7 +18905,7 @@
       </c>
       <c r="G71" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H71" s="2" t="s">
         <v>78</v>
@@ -18737,7 +18926,7 @@
       </c>
       <c r="G72" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="H72" s="2" t="s">
         <v>78</v>
@@ -18758,7 +18947,7 @@
       </c>
       <c r="G73" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="H73" s="2" t="s">
         <v>78</v>
@@ -18779,7 +18968,7 @@
       </c>
       <c r="G74" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="H74" s="2" t="s">
         <v>78</v>
@@ -18800,7 +18989,7 @@
       </c>
       <c r="G75" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="H75" s="2" t="s">
         <v>78</v>
@@ -18821,7 +19010,7 @@
       </c>
       <c r="G76" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="H76" s="2" t="s">
         <v>78</v>
@@ -18842,7 +19031,7 @@
       </c>
       <c r="G77" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="H77" s="2" t="s">
         <v>78</v>
@@ -18863,7 +19052,7 @@
       </c>
       <c r="G78" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="H78" s="2" t="s">
         <v>78</v>
@@ -18884,7 +19073,7 @@
       </c>
       <c r="G79" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="H79" s="2" t="s">
         <v>78</v>
@@ -18905,7 +19094,7 @@
       </c>
       <c r="G80" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="H80" s="2" t="s">
         <v>78</v>
@@ -18926,7 +19115,7 @@
       </c>
       <c r="G81" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="H81" s="2" t="s">
         <v>78</v>
@@ -18944,11 +19133,11 @@
       </c>
       <c r="F82" s="2">
         <f t="shared" ref="F82:G145" ca="1" si="2">RANDBETWEEN(0,100)</f>
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="G82" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H82" s="2" t="s">
         <v>78</v>
@@ -18966,11 +19155,11 @@
       </c>
       <c r="F83" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="G83" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="H83" s="2" t="s">
         <v>78</v>
@@ -18988,11 +19177,11 @@
       </c>
       <c r="F84" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G84" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="H84" s="2" t="s">
         <v>78</v>
@@ -19010,11 +19199,11 @@
       </c>
       <c r="F85" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G85" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H85" s="2" t="s">
         <v>78</v>
@@ -19032,11 +19221,11 @@
       </c>
       <c r="F86" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="G86" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="H86" s="2" t="s">
         <v>78</v>
@@ -19054,11 +19243,11 @@
       </c>
       <c r="F87" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="G87" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H87" s="2" t="s">
         <v>78</v>
@@ -19076,11 +19265,11 @@
       </c>
       <c r="F88" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="G88" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>31</v>
+        <v>96</v>
       </c>
       <c r="H88" s="2" t="s">
         <v>78</v>
@@ -19098,11 +19287,11 @@
       </c>
       <c r="F89" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G89" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="H89" s="2" t="s">
         <v>78</v>
@@ -19120,11 +19309,11 @@
       </c>
       <c r="F90" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="G90" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="H90" s="2" t="s">
         <v>78</v>
@@ -19142,11 +19331,11 @@
       </c>
       <c r="F91" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>96</v>
+        <v>6</v>
       </c>
       <c r="G91" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="H91" s="2" t="s">
         <v>78</v>
@@ -19164,11 +19353,11 @@
       </c>
       <c r="F92" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G92" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="H92" s="2" t="s">
         <v>78</v>
@@ -19186,11 +19375,11 @@
       </c>
       <c r="F93" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="G93" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="H93" s="2" t="s">
         <v>78</v>
@@ -19208,11 +19397,11 @@
       </c>
       <c r="F94" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="G94" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="H94" s="2" t="s">
         <v>78</v>
@@ -19230,11 +19419,11 @@
       </c>
       <c r="F95" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="G95" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="H95" s="2" t="s">
         <v>78</v>
@@ -19252,11 +19441,11 @@
       </c>
       <c r="F96" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>96</v>
       </c>
       <c r="G96" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="H96" s="2" t="s">
         <v>78</v>
@@ -19274,11 +19463,11 @@
       </c>
       <c r="F97" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="G97" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="H97" s="2" t="s">
         <v>78</v>
@@ -19296,11 +19485,11 @@
       </c>
       <c r="F98" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="G98" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="H98" s="2" t="s">
         <v>78</v>
@@ -19318,11 +19507,11 @@
       </c>
       <c r="F99" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="G99" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H99" s="2" t="s">
         <v>78</v>
@@ -19340,11 +19529,11 @@
       </c>
       <c r="F100" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>81</v>
       </c>
       <c r="G100" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="H100" s="2" t="s">
         <v>78</v>
@@ -19362,11 +19551,11 @@
       </c>
       <c r="F101" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="G101" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="H101" s="2" t="s">
         <v>143</v>
@@ -19384,11 +19573,11 @@
       </c>
       <c r="F102" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="G102" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="H102" s="2" t="s">
         <v>143</v>
@@ -19406,11 +19595,11 @@
       </c>
       <c r="F103" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="G103" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>92</v>
+        <v>35</v>
       </c>
       <c r="H103" s="2" t="s">
         <v>143</v>
@@ -19428,11 +19617,11 @@
       </c>
       <c r="F104" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="G104" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="H104" s="2" t="s">
         <v>143</v>
@@ -19450,11 +19639,11 @@
       </c>
       <c r="F105" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G105" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="H105" s="2" t="s">
         <v>143</v>
@@ -19472,11 +19661,11 @@
       </c>
       <c r="F106" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="G106" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="H106" s="2" t="s">
         <v>143</v>
@@ -19494,11 +19683,11 @@
       </c>
       <c r="F107" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>79</v>
+        <v>7</v>
       </c>
       <c r="G107" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="H107" s="2" t="s">
         <v>143</v>
@@ -19516,11 +19705,11 @@
       </c>
       <c r="F108" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="G108" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="H108" s="2" t="s">
         <v>143</v>
@@ -19538,11 +19727,11 @@
       </c>
       <c r="F109" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="G109" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>95</v>
+        <v>19</v>
       </c>
       <c r="H109" s="2" t="s">
         <v>143</v>
@@ -19560,11 +19749,11 @@
       </c>
       <c r="F110" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G110" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="H110" s="2" t="s">
         <v>143</v>
@@ -19582,11 +19771,11 @@
       </c>
       <c r="F111" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G111" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="H111" s="2" t="s">
         <v>143</v>
@@ -19604,11 +19793,11 @@
       </c>
       <c r="F112" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="G112" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="H112" s="2" t="s">
         <v>143</v>
@@ -19626,11 +19815,11 @@
       </c>
       <c r="F113" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="G113" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="H113" s="2" t="s">
         <v>143</v>
@@ -19648,11 +19837,11 @@
       </c>
       <c r="F114" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="G114" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="H114" s="2" t="s">
         <v>143</v>
@@ -19670,11 +19859,11 @@
       </c>
       <c r="F115" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="G115" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>99</v>
+        <v>11</v>
       </c>
       <c r="H115" s="2" t="s">
         <v>143</v>
@@ -19692,11 +19881,11 @@
       </c>
       <c r="F116" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>82</v>
       </c>
       <c r="G116" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H116" s="2" t="s">
         <v>143</v>
@@ -19714,11 +19903,11 @@
       </c>
       <c r="F117" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="G117" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="H117" s="2" t="s">
         <v>143</v>
@@ -19736,11 +19925,11 @@
       </c>
       <c r="F118" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="G118" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="H118" s="2" t="s">
         <v>143</v>
@@ -19758,11 +19947,11 @@
       </c>
       <c r="F119" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="G119" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="H119" s="2" t="s">
         <v>143</v>
@@ -19780,11 +19969,11 @@
       </c>
       <c r="F120" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="G120" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H120" s="2" t="s">
         <v>143</v>
@@ -19802,11 +19991,11 @@
       </c>
       <c r="F121" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="G121" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="H121" s="2" t="s">
         <v>143</v>
@@ -19824,11 +20013,11 @@
       </c>
       <c r="F122" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="G122" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="H122" s="2" t="s">
         <v>143</v>
@@ -19846,11 +20035,11 @@
       </c>
       <c r="F123" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>63</v>
+        <v>2</v>
       </c>
       <c r="G123" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="H123" s="2" t="s">
         <v>143</v>
@@ -19868,11 +20057,11 @@
       </c>
       <c r="F124" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G124" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>69</v>
+        <v>17</v>
       </c>
       <c r="H124" s="2" t="s">
         <v>143</v>
@@ -19890,11 +20079,11 @@
       </c>
       <c r="F125" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="G125" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>24</v>
+        <v>93</v>
       </c>
       <c r="H125" s="2" t="s">
         <v>143</v>
@@ -19912,11 +20101,11 @@
       </c>
       <c r="F126" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>80</v>
+        <v>9</v>
       </c>
       <c r="G126" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="H126" s="2" t="s">
         <v>143</v>
@@ -19934,11 +20123,11 @@
       </c>
       <c r="F127" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="G127" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>95</v>
+        <v>54</v>
       </c>
       <c r="H127" s="2" t="s">
         <v>143</v>
@@ -19956,11 +20145,11 @@
       </c>
       <c r="F128" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G128" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H128" s="2" t="s">
         <v>143</v>
@@ -19978,11 +20167,11 @@
       </c>
       <c r="F129" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="G129" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="H129" s="2" t="s">
         <v>143</v>
@@ -20000,11 +20189,11 @@
       </c>
       <c r="F130" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G130" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="H130" s="2" t="s">
         <v>143</v>
@@ -20022,11 +20211,11 @@
       </c>
       <c r="F131" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="G131" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="H131" s="2" t="s">
         <v>143</v>
@@ -20044,11 +20233,11 @@
       </c>
       <c r="F132" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>94</v>
+        <v>33</v>
       </c>
       <c r="G132" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="H132" s="2" t="s">
         <v>143</v>
@@ -20070,7 +20259,7 @@
       </c>
       <c r="G133" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="H133" s="2" t="s">
         <v>143</v>
@@ -20088,11 +20277,11 @@
       </c>
       <c r="F134" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>77</v>
+        <v>28</v>
       </c>
       <c r="G134" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="H134" s="2" t="s">
         <v>143</v>
@@ -20110,11 +20299,11 @@
       </c>
       <c r="F135" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G135" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="H135" s="2" t="s">
         <v>143</v>
@@ -20132,11 +20321,11 @@
       </c>
       <c r="F136" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G136" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="H136" s="2" t="s">
         <v>143</v>
@@ -20154,11 +20343,11 @@
       </c>
       <c r="F137" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>88</v>
+        <v>10</v>
       </c>
       <c r="G137" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H137" s="2" t="s">
         <v>143</v>
@@ -20176,11 +20365,11 @@
       </c>
       <c r="F138" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>74</v>
+        <v>6</v>
       </c>
       <c r="G138" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="H138" s="2" t="s">
         <v>143</v>
@@ -20198,11 +20387,11 @@
       </c>
       <c r="F139" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="G139" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H139" s="2" t="s">
         <v>143</v>
@@ -20220,11 +20409,11 @@
       </c>
       <c r="F140" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="G140" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="H140" s="2" t="s">
         <v>143</v>
@@ -20242,11 +20431,11 @@
       </c>
       <c r="F141" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>95</v>
+        <v>37</v>
       </c>
       <c r="G141" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="H141" s="2" t="s">
         <v>143</v>
@@ -20264,11 +20453,11 @@
       </c>
       <c r="F142" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>97</v>
+        <v>39</v>
       </c>
       <c r="G142" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="H142" s="2" t="s">
         <v>143</v>
@@ -20286,11 +20475,11 @@
       </c>
       <c r="F143" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="G143" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="H143" s="2" t="s">
         <v>143</v>
@@ -20308,11 +20497,11 @@
       </c>
       <c r="F144" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="G144" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="H144" s="2" t="s">
         <v>143</v>
@@ -20330,11 +20519,11 @@
       </c>
       <c r="F145" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="G145" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="H145" s="2" t="s">
         <v>143</v>
@@ -20352,11 +20541,11 @@
       </c>
       <c r="F146" s="2">
         <f t="shared" ref="F146:G201" ca="1" si="3">RANDBETWEEN(0,100)</f>
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="G146" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="H146" s="2" t="s">
         <v>143</v>
@@ -20374,11 +20563,11 @@
       </c>
       <c r="F147" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>99</v>
+        <v>21</v>
       </c>
       <c r="G147" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>71</v>
+        <v>6</v>
       </c>
       <c r="H147" s="2" t="s">
         <v>143</v>
@@ -20396,11 +20585,11 @@
       </c>
       <c r="F148" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="G148" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="H148" s="2" t="s">
         <v>143</v>
@@ -20418,7 +20607,7 @@
       </c>
       <c r="F149" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="G149" s="2">
         <f t="shared" ca="1" si="3"/>
@@ -20440,11 +20629,11 @@
       </c>
       <c r="F150" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="G150" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="H150" s="2" t="s">
         <v>143</v>
@@ -20462,11 +20651,11 @@
       </c>
       <c r="F151" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="G151" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>86</v>
       </c>
       <c r="H151" s="2" t="s">
         <v>473</v>
@@ -20484,11 +20673,11 @@
       </c>
       <c r="F152" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G152" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="H152" s="2" t="s">
         <v>473</v>
@@ -20506,11 +20695,11 @@
       </c>
       <c r="F153" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G153" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="H153" s="2" t="s">
         <v>473</v>
@@ -20528,11 +20717,11 @@
       </c>
       <c r="F154" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="G154" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="H154" s="2" t="s">
         <v>473</v>
@@ -20550,11 +20739,11 @@
       </c>
       <c r="F155" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>87</v>
+        <v>33</v>
       </c>
       <c r="G155" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H155" s="2" t="s">
         <v>473</v>
@@ -20572,11 +20761,11 @@
       </c>
       <c r="F156" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="G156" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="H156" s="2" t="s">
         <v>473</v>
@@ -20594,11 +20783,11 @@
       </c>
       <c r="F157" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="G157" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="H157" s="2" t="s">
         <v>473</v>
@@ -20616,11 +20805,11 @@
       </c>
       <c r="F158" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="G158" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="H158" s="2" t="s">
         <v>473</v>
@@ -20638,11 +20827,11 @@
       </c>
       <c r="F159" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="G159" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="H159" s="2" t="s">
         <v>473</v>
@@ -20660,11 +20849,11 @@
       </c>
       <c r="F160" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="G160" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="H160" s="2" t="s">
         <v>473</v>
@@ -20682,11 +20871,11 @@
       </c>
       <c r="F161" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="G161" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H161" s="2" t="s">
         <v>473</v>
@@ -20704,11 +20893,11 @@
       </c>
       <c r="F162" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="G162" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="H162" s="2" t="s">
         <v>473</v>
@@ -20726,11 +20915,11 @@
       </c>
       <c r="F163" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="G163" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="H163" s="2" t="s">
         <v>473</v>
@@ -20748,11 +20937,11 @@
       </c>
       <c r="F164" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="G164" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>97</v>
+        <v>57</v>
       </c>
       <c r="H164" s="2" t="s">
         <v>473</v>
@@ -20770,11 +20959,11 @@
       </c>
       <c r="F165" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="G165" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H165" s="2" t="s">
         <v>473</v>
@@ -20792,11 +20981,11 @@
       </c>
       <c r="F166" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="G166" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="H166" s="2" t="s">
         <v>473</v>
@@ -20814,11 +21003,11 @@
       </c>
       <c r="F167" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="G167" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="H167" s="2" t="s">
         <v>473</v>
@@ -20836,11 +21025,11 @@
       </c>
       <c r="F168" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="G168" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="H168" s="2" t="s">
         <v>473</v>
@@ -20858,11 +21047,11 @@
       </c>
       <c r="F169" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G169" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H169" s="2" t="s">
         <v>473</v>
@@ -20880,11 +21069,11 @@
       </c>
       <c r="F170" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G170" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="H170" s="2" t="s">
         <v>473</v>
@@ -20902,11 +21091,11 @@
       </c>
       <c r="F171" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="G171" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H171" s="2" t="s">
         <v>473</v>
@@ -20924,11 +21113,11 @@
       </c>
       <c r="F172" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="G172" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="H172" s="2" t="s">
         <v>473</v>
@@ -20946,11 +21135,11 @@
       </c>
       <c r="F173" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G173" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="H173" s="2" t="s">
         <v>473</v>
@@ -20968,11 +21157,11 @@
       </c>
       <c r="F174" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="G174" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H174" s="2" t="s">
         <v>473</v>
@@ -20990,11 +21179,11 @@
       </c>
       <c r="F175" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="G175" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>75</v>
+        <v>11</v>
       </c>
       <c r="H175" s="2" t="s">
         <v>473</v>
@@ -21012,11 +21201,11 @@
       </c>
       <c r="F176" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>46</v>
+        <v>97</v>
       </c>
       <c r="G176" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="H176" s="2" t="s">
         <v>473</v>
@@ -21034,11 +21223,11 @@
       </c>
       <c r="F177" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="G177" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="H177" s="2" t="s">
         <v>473</v>
@@ -21056,11 +21245,11 @@
       </c>
       <c r="F178" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="G178" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="H178" s="2" t="s">
         <v>473</v>
@@ -21078,11 +21267,11 @@
       </c>
       <c r="F179" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="G179" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H179" s="2" t="s">
         <v>473</v>
@@ -21100,11 +21289,11 @@
       </c>
       <c r="F180" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="G180" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="H180" s="2" t="s">
         <v>473</v>
@@ -21122,11 +21311,11 @@
       </c>
       <c r="F181" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="G181" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="H181" s="2" t="s">
         <v>473</v>
@@ -21144,11 +21333,11 @@
       </c>
       <c r="F182" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="G182" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="H182" s="2" t="s">
         <v>473</v>
@@ -21166,11 +21355,11 @@
       </c>
       <c r="F183" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="G183" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="H183" s="2" t="s">
         <v>473</v>
@@ -21188,11 +21377,11 @@
       </c>
       <c r="F184" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>94</v>
       </c>
       <c r="G184" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H184" s="2" t="s">
         <v>473</v>
@@ -21210,11 +21399,11 @@
       </c>
       <c r="F185" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="G185" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="H185" s="2" t="s">
         <v>473</v>
@@ -21232,11 +21421,11 @@
       </c>
       <c r="F186" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="G186" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="H186" s="2" t="s">
         <v>473</v>
@@ -21254,11 +21443,11 @@
       </c>
       <c r="F187" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="G187" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="H187" s="2" t="s">
         <v>473</v>
@@ -21276,11 +21465,11 @@
       </c>
       <c r="F188" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="G188" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="H188" s="2" t="s">
         <v>473</v>
@@ -21298,11 +21487,11 @@
       </c>
       <c r="F189" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G189" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="H189" s="2" t="s">
         <v>473</v>
@@ -21320,11 +21509,11 @@
       </c>
       <c r="F190" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="G190" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H190" s="2" t="s">
         <v>473</v>
@@ -21342,11 +21531,11 @@
       </c>
       <c r="F191" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>94</v>
+        <v>29</v>
       </c>
       <c r="G191" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H191" s="2" t="s">
         <v>473</v>
@@ -21364,11 +21553,11 @@
       </c>
       <c r="F192" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="G192" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="H192" s="2" t="s">
         <v>473</v>
@@ -21386,11 +21575,11 @@
       </c>
       <c r="F193" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="G193" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="H193" s="2" t="s">
         <v>473</v>
@@ -21408,11 +21597,11 @@
       </c>
       <c r="F194" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="G194" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H194" s="2" t="s">
         <v>473</v>
@@ -21430,11 +21619,11 @@
       </c>
       <c r="F195" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G195" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H195" s="2" t="s">
         <v>473</v>
@@ -21452,11 +21641,11 @@
       </c>
       <c r="F196" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>82</v>
+        <v>11</v>
       </c>
       <c r="G196" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="H196" s="2" t="s">
         <v>473</v>
@@ -21474,11 +21663,11 @@
       </c>
       <c r="F197" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>21</v>
+        <v>92</v>
       </c>
       <c r="G197" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>55</v>
+        <v>4</v>
       </c>
       <c r="H197" s="2" t="s">
         <v>473</v>
@@ -21496,7 +21685,7 @@
       </c>
       <c r="F198" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="G198" s="2">
         <f t="shared" ca="1" si="3"/>
@@ -21518,11 +21707,11 @@
       </c>
       <c r="F199" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>43</v>
+        <v>85</v>
       </c>
       <c r="G199" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="H199" s="2" t="s">
         <v>473</v>
@@ -21543,11 +21732,11 @@
       </c>
       <c r="F200" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="G200" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="H200" s="2" t="s">
         <v>473</v>
@@ -21568,11 +21757,11 @@
       </c>
       <c r="F201" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>97</v>
+        <v>29</v>
       </c>
       <c r="G201" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H201" s="2" t="s">
         <v>473</v>

--- a/daveydark/src/Database.xlsx
+++ b/daveydark/src/Database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\APEX -hackathon\.venv\APEX-Hackathon\daveydark\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06716A21-19F3-4F7F-B0BF-62807AF5374F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4537C48-BE34-4CAC-8289-F625100E8C0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,22 +18,11 @@
     <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2770" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2771" uniqueCount="479">
   <si>
     <t>email</t>
   </si>
@@ -1468,6 +1457,9 @@
   </si>
   <si>
     <t>hello</t>
+  </si>
+  <si>
+    <t>item_request</t>
   </si>
 </sst>
 </file>
@@ -1813,10 +1805,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K62"/>
+  <dimension ref="A1:L200"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L53" sqref="L53"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1828,9 +1820,10 @@
     <col min="5" max="5" width="19.453125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.26953125" customWidth="1"/>
     <col min="9" max="9" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" customHeight="1">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1864,8 +1857,11 @@
       <c r="K1" s="2" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" customHeight="1">
+      <c r="L1" s="2" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -1899,8 +1895,11 @@
       <c r="K2" s="2" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" customHeight="1">
+      <c r="L2" s="2">
+        <v>1786215829</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -1934,8 +1933,11 @@
       <c r="K3" s="2" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="15.75" customHeight="1">
+      <c r="L3" s="2">
+        <v>4419996188</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -1969,8 +1971,11 @@
       <c r="K4" s="2" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="15.75" customHeight="1">
+      <c r="L4" s="2">
+        <v>4764863649</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>25</v>
       </c>
@@ -2004,8 +2009,11 @@
       <c r="K5" s="2" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" ht="15.75" customHeight="1">
+      <c r="L5" s="2">
+        <v>6218226160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>29</v>
       </c>
@@ -2039,8 +2047,11 @@
       <c r="K6" s="2" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" ht="15.75" customHeight="1">
+      <c r="L6" s="2">
+        <v>6774872204</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>33</v>
       </c>
@@ -2074,8 +2085,11 @@
       <c r="K7" s="2" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" ht="15.75" customHeight="1">
+      <c r="L7" s="2">
+        <v>6830241569</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>37</v>
       </c>
@@ -2109,8 +2123,11 @@
       <c r="K8" s="2" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" ht="15.75" customHeight="1">
+      <c r="L8" s="2">
+        <v>7271773855</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>41</v>
       </c>
@@ -2144,8 +2161,11 @@
       <c r="K9" s="2" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" ht="15.75" customHeight="1">
+      <c r="L9" s="2">
+        <v>8434769406</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>45</v>
       </c>
@@ -2179,8 +2199,11 @@
       <c r="K10" s="2" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" ht="15.75" customHeight="1">
+      <c r="L10" s="2">
+        <v>8696718994</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>49</v>
       </c>
@@ -2214,8 +2237,11 @@
       <c r="K11" s="2" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" ht="15.75" customHeight="1">
+      <c r="L11" s="2">
+        <v>2213504143</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>53</v>
       </c>
@@ -2249,8 +2275,11 @@
       <c r="K12" s="2" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" ht="15.75" customHeight="1">
+      <c r="L12" s="2">
+        <v>2318507021</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15.75" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>58</v>
       </c>
@@ -2284,8 +2313,11 @@
       <c r="K13" s="2" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" ht="15.75" customHeight="1">
+      <c r="L13" s="2">
+        <v>2426391627</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15.75" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>62</v>
       </c>
@@ -2319,8 +2351,11 @@
       <c r="K14" s="2" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" ht="15.75" customHeight="1">
+      <c r="L14" s="2">
+        <v>3622677360</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15.75" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>66</v>
       </c>
@@ -2354,8 +2389,11 @@
       <c r="K15" s="2" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" ht="15.75" customHeight="1">
+      <c r="L15" s="2">
+        <v>4419996188</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15.75" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>70</v>
       </c>
@@ -2389,8 +2427,11 @@
       <c r="K16" s="2" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" ht="15.75" customHeight="1">
+      <c r="L16" s="2">
+        <v>4475416161</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="15.75" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>74</v>
       </c>
@@ -2424,8 +2465,11 @@
       <c r="K17" s="2" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" ht="15.75" customHeight="1">
+      <c r="L17" s="2">
+        <v>4764863649</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="15.75" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>79</v>
       </c>
@@ -2459,8 +2503,11 @@
       <c r="K18" s="2" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" ht="15.75" customHeight="1">
+      <c r="L18" s="2">
+        <v>5554432871</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="15.75" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>83</v>
       </c>
@@ -2494,8 +2541,11 @@
       <c r="K19" s="2" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" ht="14.5">
+      <c r="L19" s="2">
+        <v>7567083236</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="14.5">
       <c r="A20" s="1" t="s">
         <v>87</v>
       </c>
@@ -2529,8 +2579,11 @@
       <c r="K20" s="2" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" ht="14.5">
+      <c r="L20" s="2">
+        <v>8189842209</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="14.5">
       <c r="A21" s="1" t="s">
         <v>91</v>
       </c>
@@ -2564,8 +2617,11 @@
       <c r="K21" s="2" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" ht="14.5">
+      <c r="L21" s="2">
+        <v>9251469986</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="14.5">
       <c r="A22" s="1" t="s">
         <v>95</v>
       </c>
@@ -2599,8 +2655,11 @@
       <c r="K22" s="2" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" ht="14.5">
+      <c r="L22" s="2">
+        <v>9288360791</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="14.5">
       <c r="A23" s="1" t="s">
         <v>99</v>
       </c>
@@ -2634,8 +2693,11 @@
       <c r="K23" s="2" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" ht="14.5">
+      <c r="L23" s="2">
+        <v>2423972303</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="14.5">
       <c r="A24" s="1" t="s">
         <v>103</v>
       </c>
@@ -2669,8 +2731,11 @@
       <c r="K24" s="2" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" ht="14.5">
+      <c r="L24" s="2">
+        <v>1772492382</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="14.5">
       <c r="A25" s="1" t="s">
         <v>107</v>
       </c>
@@ -2704,8 +2769,11 @@
       <c r="K25" s="2" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" ht="14.5">
+      <c r="L25" s="2">
+        <v>2423972303</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="14.5">
       <c r="A26" s="1" t="s">
         <v>111</v>
       </c>
@@ -2739,8 +2807,11 @@
       <c r="K26" s="2" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" ht="14.5">
+      <c r="L26" s="2">
+        <v>4139642861</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="14.5">
       <c r="A27" s="1" t="s">
         <v>115</v>
       </c>
@@ -2774,8 +2845,11 @@
       <c r="K27" s="2" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" ht="14.5">
+      <c r="L27" s="2">
+        <v>4392534942</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="14.5">
       <c r="A28" s="1" t="s">
         <v>119</v>
       </c>
@@ -2809,8 +2883,11 @@
       <c r="K28" s="2" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" ht="14.5">
+      <c r="L28" s="2">
+        <v>5554432871</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="14.5">
       <c r="A29" s="1" t="s">
         <v>123</v>
       </c>
@@ -2844,8 +2921,11 @@
       <c r="K29" s="2" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" ht="14.5">
+      <c r="L29" s="2">
+        <v>6436566881</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="14.5">
       <c r="A30" s="1" t="s">
         <v>127</v>
       </c>
@@ -2879,8 +2959,11 @@
       <c r="K30" s="2" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" ht="14.5">
+      <c r="L30" s="2">
+        <v>7607347124</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="14.5">
       <c r="A31" s="1" t="s">
         <v>131</v>
       </c>
@@ -2914,8 +2997,11 @@
       <c r="K31" s="2" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" ht="14.5">
+      <c r="L31" s="2">
+        <v>8289808476</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="14.5">
       <c r="A32" s="1" t="s">
         <v>135</v>
       </c>
@@ -2949,8 +3035,11 @@
       <c r="K32" s="2" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" ht="14.5">
+      <c r="L32" s="2">
+        <v>9605185003</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="14.5">
       <c r="A33" s="1" t="s">
         <v>139</v>
       </c>
@@ -2984,8 +3073,11 @@
       <c r="K33" s="2" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" ht="14.5">
+      <c r="L33" s="2">
+        <v>5904803580</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="14.5">
       <c r="A34" s="1" t="s">
         <v>144</v>
       </c>
@@ -3019,8 +3111,11 @@
       <c r="K34" s="2" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" ht="14.5">
+      <c r="L34" s="2">
+        <v>1290236114</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="14.5">
       <c r="A35" s="1" t="s">
         <v>148</v>
       </c>
@@ -3054,8 +3149,11 @@
       <c r="K35" s="2" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" ht="14.5">
+      <c r="L35" s="2">
+        <v>1334416271</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="14.5">
       <c r="A36" s="1" t="s">
         <v>152</v>
       </c>
@@ -3089,8 +3187,11 @@
       <c r="K36" s="2" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" ht="14.5">
+      <c r="L36" s="2">
+        <v>1510090180</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="14.5">
       <c r="A37" s="1" t="s">
         <v>156</v>
       </c>
@@ -3124,8 +3225,11 @@
       <c r="K37" s="2" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" ht="14.5">
+      <c r="L37" s="2">
+        <v>2426391627</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="14.5">
       <c r="A38" s="1" t="s">
         <v>160</v>
       </c>
@@ -3159,8 +3263,11 @@
       <c r="K38" s="2" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" ht="14.5">
+      <c r="L38" s="2">
+        <v>2959405228</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="14.5">
       <c r="A39" s="1" t="s">
         <v>164</v>
       </c>
@@ -3194,8 +3301,11 @@
       <c r="K39" s="2" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" ht="14.5">
+      <c r="L39" s="2">
+        <v>3768275696</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="14.5">
       <c r="A40" s="1" t="s">
         <v>168</v>
       </c>
@@ -3229,8 +3339,11 @@
       <c r="K40" s="2" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" ht="14.5">
+      <c r="L40" s="2">
+        <v>4419996188</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="14.5">
       <c r="A41" s="1" t="s">
         <v>172</v>
       </c>
@@ -3264,8 +3377,11 @@
       <c r="K41" s="2" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" ht="14.5">
+      <c r="L41" s="2">
+        <v>4993915684</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="14.5">
       <c r="A42" s="1" t="s">
         <v>176</v>
       </c>
@@ -3299,8 +3415,11 @@
       <c r="K42" s="2" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" ht="14.5">
+      <c r="L42" s="2">
+        <v>5904803580</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="14.5">
       <c r="A43" s="1" t="s">
         <v>181</v>
       </c>
@@ -3334,8 +3453,11 @@
       <c r="K43" s="2" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" ht="14.5">
+      <c r="L43" s="2">
+        <v>1510090180</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="14.5">
       <c r="A44" s="1" t="s">
         <v>185</v>
       </c>
@@ -3369,8 +3491,11 @@
       <c r="K44" s="2" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" ht="14.5">
+      <c r="L44" s="2">
+        <v>1834653378</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="14.5">
       <c r="A45" s="1" t="s">
         <v>189</v>
       </c>
@@ -3404,8 +3529,11 @@
       <c r="K45" s="2" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" ht="14.5">
+      <c r="L45" s="2">
+        <v>3498447263</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="14.5">
       <c r="A46" s="1" t="s">
         <v>193</v>
       </c>
@@ -3439,8 +3567,11 @@
       <c r="K46" s="2" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" ht="14.5">
+      <c r="L46" s="2">
+        <v>3768275696</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="14.5">
       <c r="A47" s="1" t="s">
         <v>197</v>
       </c>
@@ -3474,8 +3605,11 @@
       <c r="K47" s="2" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" ht="14.5">
+      <c r="L47" s="2">
+        <v>4139642861</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="14.5">
       <c r="A48" s="1" t="s">
         <v>202</v>
       </c>
@@ -3509,8 +3643,11 @@
       <c r="K48" s="2" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" ht="14.5">
+      <c r="L48" s="2">
+        <v>4475416161</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="14.5">
       <c r="A49" s="1" t="s">
         <v>206</v>
       </c>
@@ -3544,8 +3681,11 @@
       <c r="K49" s="2" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" ht="14.5">
+      <c r="L49" s="2">
+        <v>5584712927</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="14.5">
       <c r="A50" s="1" t="s">
         <v>210</v>
       </c>
@@ -3579,8 +3719,11 @@
       <c r="K50" s="2" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" ht="14.5">
+      <c r="L50" s="2">
+        <v>5705131129</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="14.5">
       <c r="A51" s="1" t="s">
         <v>214</v>
       </c>
@@ -3614,8 +3757,11 @@
       <c r="K51" s="2" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" ht="14.5">
+      <c r="L51" s="2">
+        <v>8289808476</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="14.5">
       <c r="A52" s="1" t="s">
         <v>218</v>
       </c>
@@ -3649,8 +3795,11 @@
       <c r="K52" s="2" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" ht="14.5">
+      <c r="L52" s="2">
+        <v>8351124961</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="14.5">
       <c r="A53" s="1" t="s">
         <v>222</v>
       </c>
@@ -3684,8 +3833,11 @@
       <c r="K53" s="2" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" ht="14.5">
+      <c r="L53" s="2">
+        <v>2318507021</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="14.5">
       <c r="A54" s="1" t="s">
         <v>226</v>
       </c>
@@ -3719,8 +3871,11 @@
       <c r="K54" s="2" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" ht="14.5">
+      <c r="L54" s="2">
+        <v>3216098731</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="14.5">
       <c r="A55" s="1" t="s">
         <v>230</v>
       </c>
@@ -3754,8 +3909,11 @@
       <c r="K55" s="2" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" ht="14.5">
+      <c r="L55" s="2">
+        <v>4227453256</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="14.5">
       <c r="A56" s="1" t="s">
         <v>234</v>
       </c>
@@ -3789,8 +3947,11 @@
       <c r="K56" s="2" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" ht="14.5">
+      <c r="L56" s="2">
+        <v>5752832299</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="14.5">
       <c r="A57" s="1" t="s">
         <v>238</v>
       </c>
@@ -3824,8 +3985,11 @@
       <c r="K57" s="2" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" ht="14.5">
+      <c r="L57" s="2">
+        <v>6830241569</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="14.5">
       <c r="A58" s="1" t="s">
         <v>242</v>
       </c>
@@ -3859,8 +4023,11 @@
       <c r="K58" s="2" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" ht="14.5">
+      <c r="L58" s="2">
+        <v>7271773855</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="14.5">
       <c r="A59" s="1" t="s">
         <v>246</v>
       </c>
@@ -3894,8 +4061,11 @@
       <c r="K59" s="2" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" ht="14.5">
+      <c r="L59" s="2">
+        <v>8696718994</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="14.5">
       <c r="A60" s="1" t="s">
         <v>250</v>
       </c>
@@ -3929,8 +4099,11 @@
       <c r="K60" s="2" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="61" spans="1:11" ht="14.5">
+      <c r="L60" s="2">
+        <v>9251469986</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="14.5">
       <c r="A61" s="1" t="s">
         <v>254</v>
       </c>
@@ -3964,9 +4137,705 @@
       <c r="K61" s="2" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" ht="14.5">
+      <c r="L61" s="2">
+        <v>1060684981</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="14.5">
       <c r="B62" s="1"/>
+      <c r="L62" s="2">
+        <v>1060684981</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="15.75" customHeight="1">
+      <c r="L63" s="2">
+        <v>1786215829</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" ht="15.75" customHeight="1">
+      <c r="L64" s="2">
+        <v>2318507021</v>
+      </c>
+    </row>
+    <row r="65" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L65" s="2">
+        <v>2959405228</v>
+      </c>
+    </row>
+    <row r="66" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L66" s="2">
+        <v>4764863649</v>
+      </c>
+    </row>
+    <row r="67" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L67" s="2">
+        <v>6218226160</v>
+      </c>
+    </row>
+    <row r="68" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L68" s="2">
+        <v>6774872204</v>
+      </c>
+    </row>
+    <row r="69" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L69" s="2">
+        <v>7607347124</v>
+      </c>
+    </row>
+    <row r="70" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L70" s="2">
+        <v>8696718994</v>
+      </c>
+    </row>
+    <row r="71" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L71" s="2">
+        <v>3216098731</v>
+      </c>
+    </row>
+    <row r="72" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L72" s="2">
+        <v>3622677360</v>
+      </c>
+    </row>
+    <row r="73" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L73" s="2">
+        <v>3768275696</v>
+      </c>
+    </row>
+    <row r="74" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L74" s="2">
+        <v>4993915684</v>
+      </c>
+    </row>
+    <row r="75" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L75" s="2">
+        <v>5398610605</v>
+      </c>
+    </row>
+    <row r="76" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L76" s="2">
+        <v>5588289702</v>
+      </c>
+    </row>
+    <row r="77" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L77" s="2">
+        <v>5752832299</v>
+      </c>
+    </row>
+    <row r="78" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L78" s="2">
+        <v>7567083236</v>
+      </c>
+    </row>
+    <row r="79" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L79" s="2">
+        <v>9288360791</v>
+      </c>
+    </row>
+    <row r="80" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L80" s="2">
+        <v>1510090180</v>
+      </c>
+    </row>
+    <row r="81" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L81" s="2">
+        <v>1772492382</v>
+      </c>
+    </row>
+    <row r="82" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L82" s="2">
+        <v>2426391627</v>
+      </c>
+    </row>
+    <row r="83" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L83" s="2">
+        <v>4475416161</v>
+      </c>
+    </row>
+    <row r="84" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L84" s="2">
+        <v>5752832299</v>
+      </c>
+    </row>
+    <row r="85" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L85" s="2">
+        <v>5904803580</v>
+      </c>
+    </row>
+    <row r="86" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L86" s="2">
+        <v>6436566881</v>
+      </c>
+    </row>
+    <row r="87" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L87" s="2">
+        <v>6774872204</v>
+      </c>
+    </row>
+    <row r="88" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L88" s="2">
+        <v>7607347124</v>
+      </c>
+    </row>
+    <row r="89" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L89" s="2">
+        <v>8189842209</v>
+      </c>
+    </row>
+    <row r="90" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L90" s="2">
+        <v>1334416271</v>
+      </c>
+    </row>
+    <row r="91" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L91" s="2">
+        <v>1834653378</v>
+      </c>
+    </row>
+    <row r="92" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L92" s="2">
+        <v>1997639991</v>
+      </c>
+    </row>
+    <row r="93" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L93" s="2">
+        <v>4139642861</v>
+      </c>
+    </row>
+    <row r="94" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L94" s="2">
+        <v>5554432871</v>
+      </c>
+    </row>
+    <row r="95" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L95" s="2">
+        <v>6349248040</v>
+      </c>
+    </row>
+    <row r="96" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L96" s="2">
+        <v>7567083236</v>
+      </c>
+    </row>
+    <row r="97" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L97" s="2">
+        <v>8434769406</v>
+      </c>
+    </row>
+    <row r="98" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L98" s="2">
+        <v>9337878591</v>
+      </c>
+    </row>
+    <row r="99" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L99" s="2">
+        <v>9605185003</v>
+      </c>
+    </row>
+    <row r="100" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L100" s="2">
+        <v>1290236114</v>
+      </c>
+    </row>
+    <row r="101" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L101" s="2">
+        <v>1997639991</v>
+      </c>
+    </row>
+    <row r="102" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L102" s="2">
+        <v>4392534942</v>
+      </c>
+    </row>
+    <row r="103" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L103" s="2">
+        <v>4993915684</v>
+      </c>
+    </row>
+    <row r="104" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L104" s="2">
+        <v>5492534607</v>
+      </c>
+    </row>
+    <row r="105" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L105" s="2">
+        <v>6436566881</v>
+      </c>
+    </row>
+    <row r="106" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L106" s="2">
+        <v>6830241569</v>
+      </c>
+    </row>
+    <row r="107" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L107" s="2">
+        <v>9337878591</v>
+      </c>
+    </row>
+    <row r="108" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L108" s="2">
+        <v>5492534607</v>
+      </c>
+    </row>
+    <row r="109" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L109" s="2">
+        <v>1772492382</v>
+      </c>
+    </row>
+    <row r="110" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L110" s="2">
+        <v>2423972303</v>
+      </c>
+    </row>
+    <row r="111" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L111" s="2">
+        <v>2959405228</v>
+      </c>
+    </row>
+    <row r="112" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L112" s="2">
+        <v>3216098731</v>
+      </c>
+    </row>
+    <row r="113" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L113" s="2">
+        <v>4227453256</v>
+      </c>
+    </row>
+    <row r="114" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L114" s="2">
+        <v>5398610605</v>
+      </c>
+    </row>
+    <row r="115" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L115" s="2">
+        <v>5588289702</v>
+      </c>
+    </row>
+    <row r="116" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L116" s="2">
+        <v>5705131129</v>
+      </c>
+    </row>
+    <row r="117" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L117" s="2">
+        <v>9251469986</v>
+      </c>
+    </row>
+    <row r="118" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L118" s="2">
+        <v>9605185003</v>
+      </c>
+    </row>
+    <row r="119" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L119" s="2">
+        <v>1834653378</v>
+      </c>
+    </row>
+    <row r="120" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L120" s="2">
+        <v>1997639991</v>
+      </c>
+    </row>
+    <row r="121" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L121" s="2">
+        <v>2213504143</v>
+      </c>
+    </row>
+    <row r="122" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L122" s="2">
+        <v>3498447263</v>
+      </c>
+    </row>
+    <row r="123" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L123" s="2">
+        <v>4392534942</v>
+      </c>
+    </row>
+    <row r="124" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L124" s="2">
+        <v>5398610605</v>
+      </c>
+    </row>
+    <row r="125" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L125" s="2">
+        <v>5705131129</v>
+      </c>
+    </row>
+    <row r="126" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L126" s="2">
+        <v>6349248040</v>
+      </c>
+    </row>
+    <row r="127" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L127" s="2">
+        <v>8351124961</v>
+      </c>
+    </row>
+    <row r="128" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L128" s="2">
+        <v>1334416271</v>
+      </c>
+    </row>
+    <row r="129" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L129" s="2">
+        <v>1786215829</v>
+      </c>
+    </row>
+    <row r="130" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L130" s="2">
+        <v>3498447263</v>
+      </c>
+    </row>
+    <row r="131" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L131" s="2">
+        <v>5492534607</v>
+      </c>
+    </row>
+    <row r="132" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L132" s="2">
+        <v>5584712927</v>
+      </c>
+    </row>
+    <row r="133" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L133" s="2">
+        <v>5588289702</v>
+      </c>
+    </row>
+    <row r="134" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L134" s="2">
+        <v>6349248040</v>
+      </c>
+    </row>
+    <row r="135" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L135" s="2">
+        <v>8189842209</v>
+      </c>
+    </row>
+    <row r="136" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L136" s="2">
+        <v>8289808476</v>
+      </c>
+    </row>
+    <row r="137" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L137" s="2">
+        <v>9288360791</v>
+      </c>
+    </row>
+    <row r="138" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L138" s="2">
+        <v>1060684981</v>
+      </c>
+    </row>
+    <row r="139" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L139" s="2">
+        <v>1290236114</v>
+      </c>
+    </row>
+    <row r="140" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L140" s="2">
+        <v>2213504143</v>
+      </c>
+    </row>
+    <row r="141" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L141" s="2">
+        <v>3622677360</v>
+      </c>
+    </row>
+    <row r="142" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L142" s="2">
+        <v>4227453256</v>
+      </c>
+    </row>
+    <row r="143" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L143" s="2">
+        <v>5584712927</v>
+      </c>
+    </row>
+    <row r="144" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L144" s="2">
+        <v>6218226160</v>
+      </c>
+    </row>
+    <row r="145" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L145" s="2">
+        <v>7271773855</v>
+      </c>
+    </row>
+    <row r="146" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L146" s="2">
+        <v>8351124961</v>
+      </c>
+    </row>
+    <row r="147" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L147" s="2">
+        <v>8434769406</v>
+      </c>
+    </row>
+    <row r="148" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L148" s="2">
+        <v>9337878591</v>
+      </c>
+    </row>
+    <row r="149" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L149" s="2">
+        <v>2012514783</v>
+      </c>
+    </row>
+    <row r="150" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L150" s="2">
+        <v>2012514783</v>
+      </c>
+    </row>
+    <row r="151" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L151" s="2">
+        <v>2781135799</v>
+      </c>
+    </row>
+    <row r="152" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L152" s="2">
+        <v>4304232986</v>
+      </c>
+    </row>
+    <row r="153" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L153" s="2">
+        <v>5669246590</v>
+      </c>
+    </row>
+    <row r="154" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L154" s="2">
+        <v>6472435309</v>
+      </c>
+    </row>
+    <row r="155" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L155" s="2">
+        <v>6838157387</v>
+      </c>
+    </row>
+    <row r="156" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L156" s="2">
+        <v>7359359432</v>
+      </c>
+    </row>
+    <row r="157" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L157" s="2">
+        <v>7573495775</v>
+      </c>
+    </row>
+    <row r="158" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L158" s="2">
+        <v>7583292085</v>
+      </c>
+    </row>
+    <row r="159" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L159" s="2">
+        <v>1623206015</v>
+      </c>
+    </row>
+    <row r="160" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L160" s="2">
+        <v>2536662733</v>
+      </c>
+    </row>
+    <row r="161" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L161" s="2">
+        <v>2701776538</v>
+      </c>
+    </row>
+    <row r="162" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L162" s="2">
+        <v>4698968233</v>
+      </c>
+    </row>
+    <row r="163" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L163" s="2">
+        <v>4939130813</v>
+      </c>
+    </row>
+    <row r="164" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L164" s="2">
+        <v>5705430657</v>
+      </c>
+    </row>
+    <row r="165" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L165" s="2">
+        <v>6234396004</v>
+      </c>
+    </row>
+    <row r="166" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L166" s="2">
+        <v>6673260031</v>
+      </c>
+    </row>
+    <row r="167" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L167" s="2">
+        <v>6838157387</v>
+      </c>
+    </row>
+    <row r="168" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L168" s="2">
+        <v>7557530029</v>
+      </c>
+    </row>
+    <row r="169" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L169" s="2">
+        <v>1623206015</v>
+      </c>
+    </row>
+    <row r="170" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L170" s="2">
+        <v>2701776538</v>
+      </c>
+    </row>
+    <row r="171" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L171" s="2">
+        <v>3344300168</v>
+      </c>
+    </row>
+    <row r="172" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L172" s="2">
+        <v>3703606765</v>
+      </c>
+    </row>
+    <row r="173" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L173" s="2">
+        <v>4570695856</v>
+      </c>
+    </row>
+    <row r="174" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L174" s="2">
+        <v>4939130813</v>
+      </c>
+    </row>
+    <row r="175" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L175" s="2">
+        <v>5443517562</v>
+      </c>
+    </row>
+    <row r="176" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L176" s="2">
+        <v>7706689909</v>
+      </c>
+    </row>
+    <row r="177" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L177" s="2">
+        <v>8536047771</v>
+      </c>
+    </row>
+    <row r="178" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L178" s="2">
+        <v>9063899854</v>
+      </c>
+    </row>
+    <row r="179" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L179" s="2">
+        <v>9926463230</v>
+      </c>
+    </row>
+    <row r="180" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L180" s="2">
+        <v>1144106679</v>
+      </c>
+    </row>
+    <row r="181" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L181" s="2">
+        <v>1144106679</v>
+      </c>
+    </row>
+    <row r="182" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L182" s="2">
+        <v>3473126036</v>
+      </c>
+    </row>
+    <row r="183" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L183" s="2">
+        <v>4304232986</v>
+      </c>
+    </row>
+    <row r="184" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L184" s="2">
+        <v>4309845550</v>
+      </c>
+    </row>
+    <row r="185" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L185" s="2">
+        <v>5805759552</v>
+      </c>
+    </row>
+    <row r="186" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L186" s="2">
+        <v>6234396004</v>
+      </c>
+    </row>
+    <row r="187" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L187" s="2">
+        <v>6813310311</v>
+      </c>
+    </row>
+    <row r="188" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L188" s="2">
+        <v>7706689909</v>
+      </c>
+    </row>
+    <row r="189" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L189" s="2">
+        <v>8536047771</v>
+      </c>
+    </row>
+    <row r="190" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L190" s="2">
+        <v>1932617997</v>
+      </c>
+    </row>
+    <row r="191" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L191" s="2">
+        <v>2349805204</v>
+      </c>
+    </row>
+    <row r="192" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L192" s="2">
+        <v>3703606765</v>
+      </c>
+    </row>
+    <row r="193" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L193" s="2">
+        <v>3758719321</v>
+      </c>
+    </row>
+    <row r="194" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L194" s="2">
+        <v>4465586072</v>
+      </c>
+    </row>
+    <row r="195" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L195" s="2">
+        <v>5553057177</v>
+      </c>
+    </row>
+    <row r="196" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L196" s="2">
+        <v>5805759552</v>
+      </c>
+    </row>
+    <row r="197" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L197" s="2">
+        <v>6098723915</v>
+      </c>
+    </row>
+    <row r="198" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L198" s="2">
+        <v>7557530029</v>
+      </c>
+    </row>
+    <row r="199" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L199" s="2">
+        <v>8700843070</v>
+      </c>
+    </row>
+    <row r="200" spans="12:12" ht="15.75" customHeight="1">
+      <c r="L200" s="2">
+        <v>1471956134</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17276,7 +18145,7 @@
       </c>
       <c r="G2" s="2">
         <f t="shared" ref="G2:G65" ca="1" si="0">RANDBETWEEN(0,100)</f>
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>16</v>
@@ -17300,7 +18169,7 @@
       </c>
       <c r="G3" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>16</v>
@@ -17324,7 +18193,7 @@
       </c>
       <c r="G4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>86</v>
+        <v>11</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>16</v>
@@ -17348,7 +18217,7 @@
       </c>
       <c r="G5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>16</v>
@@ -17372,7 +18241,7 @@
       </c>
       <c r="G6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>16</v>
@@ -17396,7 +18265,7 @@
       </c>
       <c r="G7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>16</v>
@@ -17420,7 +18289,7 @@
       </c>
       <c r="G8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>16</v>
@@ -17468,7 +18337,7 @@
       </c>
       <c r="G10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>16</v>
@@ -17492,7 +18361,7 @@
       </c>
       <c r="G11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>16</v>
@@ -17516,7 +18385,7 @@
       </c>
       <c r="G12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>16</v>
@@ -17540,7 +18409,7 @@
       </c>
       <c r="G13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>16</v>
@@ -17564,7 +18433,7 @@
       </c>
       <c r="G14" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>16</v>
@@ -17588,7 +18457,7 @@
       </c>
       <c r="G15" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>16</v>
@@ -17612,7 +18481,7 @@
       </c>
       <c r="G16" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>16</v>
@@ -17636,7 +18505,7 @@
       </c>
       <c r="G17" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>93</v>
+        <v>44</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>16</v>
@@ -17660,7 +18529,7 @@
       </c>
       <c r="G18" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>16</v>
@@ -17684,7 +18553,7 @@
       </c>
       <c r="G19" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>16</v>
@@ -17708,7 +18577,7 @@
       </c>
       <c r="G20" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>97</v>
+        <v>2</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>16</v>
@@ -17732,7 +18601,7 @@
       </c>
       <c r="G21" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>16</v>
@@ -17756,7 +18625,7 @@
       </c>
       <c r="G22" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>16</v>
@@ -17780,7 +18649,7 @@
       </c>
       <c r="G23" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>16</v>
@@ -17804,7 +18673,7 @@
       </c>
       <c r="G24" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>16</v>
@@ -17828,7 +18697,7 @@
       </c>
       <c r="G25" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>16</v>
@@ -17852,7 +18721,7 @@
       </c>
       <c r="G26" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>16</v>
@@ -17876,7 +18745,7 @@
       </c>
       <c r="G27" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>16</v>
@@ -17900,7 +18769,7 @@
       </c>
       <c r="G28" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>16</v>
@@ -17924,7 +18793,7 @@
       </c>
       <c r="G29" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>16</v>
@@ -17948,7 +18817,7 @@
       </c>
       <c r="G30" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>16</v>
@@ -17972,7 +18841,7 @@
       </c>
       <c r="G31" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>16</v>
@@ -17996,7 +18865,7 @@
       </c>
       <c r="G32" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>16</v>
@@ -18020,7 +18889,7 @@
       </c>
       <c r="G33" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>16</v>
@@ -18044,7 +18913,7 @@
       </c>
       <c r="G34" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>16</v>
@@ -18068,7 +18937,7 @@
       </c>
       <c r="G35" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>16</v>
@@ -18092,7 +18961,7 @@
       </c>
       <c r="G36" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>16</v>
@@ -18116,7 +18985,7 @@
       </c>
       <c r="G37" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>16</v>
@@ -18140,7 +19009,7 @@
       </c>
       <c r="G38" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>16</v>
@@ -18164,7 +19033,7 @@
       </c>
       <c r="G39" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>16</v>
@@ -18188,7 +19057,7 @@
       </c>
       <c r="G40" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>16</v>
@@ -18212,7 +19081,7 @@
       </c>
       <c r="G41" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>16</v>
@@ -18236,7 +19105,7 @@
       </c>
       <c r="G42" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>16</v>
@@ -18260,7 +19129,7 @@
       </c>
       <c r="G43" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>16</v>
@@ -18284,7 +19153,7 @@
       </c>
       <c r="G44" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>16</v>
@@ -18308,7 +19177,7 @@
       </c>
       <c r="G45" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>16</v>
@@ -18332,7 +19201,7 @@
       </c>
       <c r="G46" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>16</v>
@@ -18356,7 +19225,7 @@
       </c>
       <c r="G47" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>16</v>
@@ -18380,7 +19249,7 @@
       </c>
       <c r="G48" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="H48" s="2" t="s">
         <v>16</v>
@@ -18404,7 +19273,7 @@
       </c>
       <c r="G49" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>86</v>
       </c>
       <c r="H49" s="2" t="s">
         <v>16</v>
@@ -18428,7 +19297,7 @@
       </c>
       <c r="G50" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>16</v>
@@ -18452,7 +19321,7 @@
       </c>
       <c r="G51" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="H51" s="2" t="s">
         <v>78</v>
@@ -18476,7 +19345,7 @@
       </c>
       <c r="G52" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="H52" s="2" t="s">
         <v>78</v>
@@ -18500,7 +19369,7 @@
       </c>
       <c r="G53" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="H53" s="2" t="s">
         <v>78</v>
@@ -18524,7 +19393,7 @@
       </c>
       <c r="G54" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="H54" s="2" t="s">
         <v>78</v>
@@ -18548,7 +19417,7 @@
       </c>
       <c r="G55" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>94</v>
+        <v>26</v>
       </c>
       <c r="H55" s="2" t="s">
         <v>78</v>
@@ -18572,7 +19441,7 @@
       </c>
       <c r="G56" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>89</v>
+        <v>5</v>
       </c>
       <c r="H56" s="2" t="s">
         <v>78</v>
@@ -18596,7 +19465,7 @@
       </c>
       <c r="G57" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="H57" s="2" t="s">
         <v>78</v>
@@ -18620,7 +19489,7 @@
       </c>
       <c r="G58" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>78</v>
@@ -18644,7 +19513,7 @@
       </c>
       <c r="G59" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="H59" s="2" t="s">
         <v>78</v>
@@ -18668,7 +19537,7 @@
       </c>
       <c r="G60" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="H60" s="2" t="s">
         <v>78</v>
@@ -18692,7 +19561,7 @@
       </c>
       <c r="G61" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="H61" s="2" t="s">
         <v>78</v>
@@ -18716,7 +19585,7 @@
       </c>
       <c r="G62" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="H62" s="2" t="s">
         <v>78</v>
@@ -18737,7 +19606,7 @@
       </c>
       <c r="G63" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="H63" s="2" t="s">
         <v>78</v>
@@ -18758,7 +19627,7 @@
       </c>
       <c r="G64" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>90</v>
+        <v>34</v>
       </c>
       <c r="H64" s="2" t="s">
         <v>78</v>
@@ -18779,7 +19648,7 @@
       </c>
       <c r="G65" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="H65" s="2" t="s">
         <v>78</v>
@@ -18800,7 +19669,7 @@
       </c>
       <c r="G66" s="2">
         <f t="shared" ref="G66:G81" ca="1" si="1">RANDBETWEEN(0,100)</f>
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="H66" s="2" t="s">
         <v>78</v>
@@ -18821,7 +19690,7 @@
       </c>
       <c r="G67" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="H67" s="2" t="s">
         <v>78</v>
@@ -18842,7 +19711,7 @@
       </c>
       <c r="G68" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>96</v>
+        <v>21</v>
       </c>
       <c r="H68" s="2" t="s">
         <v>78</v>
@@ -18863,7 +19732,7 @@
       </c>
       <c r="G69" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>88</v>
+        <v>4</v>
       </c>
       <c r="H69" s="2" t="s">
         <v>78</v>
@@ -18884,7 +19753,7 @@
       </c>
       <c r="G70" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="H70" s="2" t="s">
         <v>78</v>
@@ -18905,7 +19774,7 @@
       </c>
       <c r="G71" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="H71" s="2" t="s">
         <v>78</v>
@@ -18926,7 +19795,7 @@
       </c>
       <c r="G72" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="H72" s="2" t="s">
         <v>78</v>
@@ -18947,7 +19816,7 @@
       </c>
       <c r="G73" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="H73" s="2" t="s">
         <v>78</v>
@@ -18968,7 +19837,7 @@
       </c>
       <c r="G74" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="H74" s="2" t="s">
         <v>78</v>
@@ -18989,7 +19858,7 @@
       </c>
       <c r="G75" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="H75" s="2" t="s">
         <v>78</v>
@@ -19010,7 +19879,7 @@
       </c>
       <c r="G76" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="H76" s="2" t="s">
         <v>78</v>
@@ -19031,7 +19900,7 @@
       </c>
       <c r="G77" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="H77" s="2" t="s">
         <v>78</v>
@@ -19052,7 +19921,7 @@
       </c>
       <c r="G78" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="H78" s="2" t="s">
         <v>78</v>
@@ -19073,7 +19942,7 @@
       </c>
       <c r="G79" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H79" s="2" t="s">
         <v>78</v>
@@ -19094,7 +19963,7 @@
       </c>
       <c r="G80" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="H80" s="2" t="s">
         <v>78</v>
@@ -19115,7 +19984,7 @@
       </c>
       <c r="G81" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="H81" s="2" t="s">
         <v>78</v>
@@ -19133,11 +20002,11 @@
       </c>
       <c r="F82" s="2">
         <f t="shared" ref="F82:G145" ca="1" si="2">RANDBETWEEN(0,100)</f>
-        <v>23</v>
+        <v>88</v>
       </c>
       <c r="G82" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H82" s="2" t="s">
         <v>78</v>
@@ -19155,11 +20024,11 @@
       </c>
       <c r="F83" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G83" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="H83" s="2" t="s">
         <v>78</v>
@@ -19177,11 +20046,11 @@
       </c>
       <c r="F84" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="G84" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="H84" s="2" t="s">
         <v>78</v>
@@ -19199,11 +20068,11 @@
       </c>
       <c r="F85" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="G85" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="H85" s="2" t="s">
         <v>78</v>
@@ -19221,11 +20090,11 @@
       </c>
       <c r="F86" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="G86" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>91</v>
+        <v>11</v>
       </c>
       <c r="H86" s="2" t="s">
         <v>78</v>
@@ -19243,11 +20112,11 @@
       </c>
       <c r="F87" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>27</v>
+        <v>91</v>
       </c>
       <c r="G87" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="H87" s="2" t="s">
         <v>78</v>
@@ -19265,11 +20134,11 @@
       </c>
       <c r="F88" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G88" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="H88" s="2" t="s">
         <v>78</v>
@@ -19287,11 +20156,11 @@
       </c>
       <c r="F89" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>87</v>
+        <v>28</v>
       </c>
       <c r="G89" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="H89" s="2" t="s">
         <v>78</v>
@@ -19309,7 +20178,7 @@
       </c>
       <c r="F90" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G90" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -19331,11 +20200,11 @@
       </c>
       <c r="F91" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="G91" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="H91" s="2" t="s">
         <v>78</v>
@@ -19353,11 +20222,11 @@
       </c>
       <c r="F92" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>98</v>
       </c>
       <c r="G92" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="H92" s="2" t="s">
         <v>78</v>
@@ -19375,11 +20244,11 @@
       </c>
       <c r="F93" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="G93" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="H93" s="2" t="s">
         <v>78</v>
@@ -19397,11 +20266,11 @@
       </c>
       <c r="F94" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>88</v>
+        <v>2</v>
       </c>
       <c r="G94" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="H94" s="2" t="s">
         <v>78</v>
@@ -19419,11 +20288,11 @@
       </c>
       <c r="F95" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G95" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H95" s="2" t="s">
         <v>78</v>
@@ -19441,11 +20310,11 @@
       </c>
       <c r="F96" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="G96" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="H96" s="2" t="s">
         <v>78</v>
@@ -19463,11 +20332,11 @@
       </c>
       <c r="F97" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="G97" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="H97" s="2" t="s">
         <v>78</v>
@@ -19485,11 +20354,11 @@
       </c>
       <c r="F98" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="G98" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>98</v>
+        <v>51</v>
       </c>
       <c r="H98" s="2" t="s">
         <v>78</v>
@@ -19507,11 +20376,11 @@
       </c>
       <c r="F99" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="G99" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>64</v>
+        <v>6</v>
       </c>
       <c r="H99" s="2" t="s">
         <v>78</v>
@@ -19529,11 +20398,11 @@
       </c>
       <c r="F100" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="G100" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="H100" s="2" t="s">
         <v>78</v>
@@ -19551,11 +20420,11 @@
       </c>
       <c r="F101" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="G101" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="H101" s="2" t="s">
         <v>143</v>
@@ -19573,11 +20442,11 @@
       </c>
       <c r="F102" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="G102" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H102" s="2" t="s">
         <v>143</v>
@@ -19595,11 +20464,11 @@
       </c>
       <c r="F103" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="G103" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="H103" s="2" t="s">
         <v>143</v>
@@ -19617,11 +20486,11 @@
       </c>
       <c r="F104" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G104" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H104" s="2" t="s">
         <v>143</v>
@@ -19639,11 +20508,11 @@
       </c>
       <c r="F105" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>99</v>
       </c>
       <c r="G105" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="H105" s="2" t="s">
         <v>143</v>
@@ -19661,11 +20530,11 @@
       </c>
       <c r="F106" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="G106" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="H106" s="2" t="s">
         <v>143</v>
@@ -19683,11 +20552,11 @@
       </c>
       <c r="F107" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>87</v>
       </c>
       <c r="G107" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="H107" s="2" t="s">
         <v>143</v>
@@ -19705,11 +20574,11 @@
       </c>
       <c r="F108" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="G108" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="H108" s="2" t="s">
         <v>143</v>
@@ -19727,11 +20596,11 @@
       </c>
       <c r="F109" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="G109" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="H109" s="2" t="s">
         <v>143</v>
@@ -19749,11 +20618,11 @@
       </c>
       <c r="F110" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G110" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="H110" s="2" t="s">
         <v>143</v>
@@ -19771,11 +20640,11 @@
       </c>
       <c r="F111" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="G111" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="H111" s="2" t="s">
         <v>143</v>
@@ -19793,11 +20662,11 @@
       </c>
       <c r="F112" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G112" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="H112" s="2" t="s">
         <v>143</v>
@@ -19815,11 +20684,11 @@
       </c>
       <c r="F113" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="G113" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="H113" s="2" t="s">
         <v>143</v>
@@ -19837,11 +20706,11 @@
       </c>
       <c r="F114" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="G114" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="H114" s="2" t="s">
         <v>143</v>
@@ -19859,11 +20728,11 @@
       </c>
       <c r="F115" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G115" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="H115" s="2" t="s">
         <v>143</v>
@@ -19881,11 +20750,11 @@
       </c>
       <c r="F116" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="G116" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H116" s="2" t="s">
         <v>143</v>
@@ -19903,11 +20772,11 @@
       </c>
       <c r="F117" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="G117" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="H117" s="2" t="s">
         <v>143</v>
@@ -19925,11 +20794,11 @@
       </c>
       <c r="F118" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="G118" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="H118" s="2" t="s">
         <v>143</v>
@@ -19947,11 +20816,11 @@
       </c>
       <c r="F119" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="G119" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="H119" s="2" t="s">
         <v>143</v>
@@ -19969,11 +20838,11 @@
       </c>
       <c r="F120" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="G120" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>55</v>
+        <v>99</v>
       </c>
       <c r="H120" s="2" t="s">
         <v>143</v>
@@ -19991,11 +20860,11 @@
       </c>
       <c r="F121" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="G121" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H121" s="2" t="s">
         <v>143</v>
@@ -20013,11 +20882,11 @@
       </c>
       <c r="F122" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="G122" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="H122" s="2" t="s">
         <v>143</v>
@@ -20035,11 +20904,11 @@
       </c>
       <c r="F123" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="G123" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="H123" s="2" t="s">
         <v>143</v>
@@ -20057,11 +20926,11 @@
       </c>
       <c r="F124" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="G124" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>17</v>
+        <v>83</v>
       </c>
       <c r="H124" s="2" t="s">
         <v>143</v>
@@ -20079,11 +20948,11 @@
       </c>
       <c r="F125" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="G125" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="H125" s="2" t="s">
         <v>143</v>
@@ -20101,11 +20970,11 @@
       </c>
       <c r="F126" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="G126" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>88</v>
       </c>
       <c r="H126" s="2" t="s">
         <v>143</v>
@@ -20123,11 +20992,11 @@
       </c>
       <c r="F127" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="G127" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="H127" s="2" t="s">
         <v>143</v>
@@ -20145,11 +21014,11 @@
       </c>
       <c r="F128" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="G128" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="H128" s="2" t="s">
         <v>143</v>
@@ -20167,11 +21036,11 @@
       </c>
       <c r="F129" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G129" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="H129" s="2" t="s">
         <v>143</v>
@@ -20189,11 +21058,11 @@
       </c>
       <c r="F130" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G130" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="H130" s="2" t="s">
         <v>143</v>
@@ -20211,11 +21080,11 @@
       </c>
       <c r="F131" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="G131" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="H131" s="2" t="s">
         <v>143</v>
@@ -20233,11 +21102,11 @@
       </c>
       <c r="F132" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="G132" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="H132" s="2" t="s">
         <v>143</v>
@@ -20255,11 +21124,11 @@
       </c>
       <c r="F133" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>89</v>
+        <v>17</v>
       </c>
       <c r="G133" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="H133" s="2" t="s">
         <v>143</v>
@@ -20277,11 +21146,11 @@
       </c>
       <c r="F134" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="G134" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>94</v>
+        <v>51</v>
       </c>
       <c r="H134" s="2" t="s">
         <v>143</v>
@@ -20299,11 +21168,11 @@
       </c>
       <c r="F135" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>91</v>
+        <v>30</v>
       </c>
       <c r="G135" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H135" s="2" t="s">
         <v>143</v>
@@ -20321,11 +21190,11 @@
       </c>
       <c r="F136" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>73</v>
+        <v>6</v>
       </c>
       <c r="G136" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>23</v>
+        <v>92</v>
       </c>
       <c r="H136" s="2" t="s">
         <v>143</v>
@@ -20343,11 +21212,11 @@
       </c>
       <c r="F137" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="G137" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="H137" s="2" t="s">
         <v>143</v>
@@ -20365,11 +21234,11 @@
       </c>
       <c r="F138" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="G138" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="H138" s="2" t="s">
         <v>143</v>
@@ -20387,11 +21256,11 @@
       </c>
       <c r="F139" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="G139" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="H139" s="2" t="s">
         <v>143</v>
@@ -20409,11 +21278,11 @@
       </c>
       <c r="F140" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="G140" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="H140" s="2" t="s">
         <v>143</v>
@@ -20431,11 +21300,11 @@
       </c>
       <c r="F141" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="G141" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H141" s="2" t="s">
         <v>143</v>
@@ -20453,11 +21322,11 @@
       </c>
       <c r="F142" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="G142" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="H142" s="2" t="s">
         <v>143</v>
@@ -20475,11 +21344,11 @@
       </c>
       <c r="F143" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>74</v>
+        <v>3</v>
       </c>
       <c r="G143" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H143" s="2" t="s">
         <v>143</v>
@@ -20497,11 +21366,11 @@
       </c>
       <c r="F144" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="G144" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>88</v>
       </c>
       <c r="H144" s="2" t="s">
         <v>143</v>
@@ -20519,11 +21388,11 @@
       </c>
       <c r="F145" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="G145" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="H145" s="2" t="s">
         <v>143</v>
@@ -20541,11 +21410,11 @@
       </c>
       <c r="F146" s="2">
         <f t="shared" ref="F146:G201" ca="1" si="3">RANDBETWEEN(0,100)</f>
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="G146" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>85</v>
+        <v>3</v>
       </c>
       <c r="H146" s="2" t="s">
         <v>143</v>
@@ -20563,11 +21432,11 @@
       </c>
       <c r="F147" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="G147" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>74</v>
       </c>
       <c r="H147" s="2" t="s">
         <v>143</v>
@@ -20585,11 +21454,11 @@
       </c>
       <c r="F148" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="G148" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="H148" s="2" t="s">
         <v>143</v>
@@ -20607,11 +21476,11 @@
       </c>
       <c r="F149" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>93</v>
+        <v>8</v>
       </c>
       <c r="G149" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="H149" s="2" t="s">
         <v>143</v>
@@ -20629,11 +21498,11 @@
       </c>
       <c r="F150" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="G150" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>94</v>
+        <v>10</v>
       </c>
       <c r="H150" s="2" t="s">
         <v>143</v>
@@ -20651,11 +21520,11 @@
       </c>
       <c r="F151" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="G151" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="H151" s="2" t="s">
         <v>473</v>
@@ -20673,11 +21542,11 @@
       </c>
       <c r="F152" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="G152" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="H152" s="2" t="s">
         <v>473</v>
@@ -20695,11 +21564,11 @@
       </c>
       <c r="F153" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="G153" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="H153" s="2" t="s">
         <v>473</v>
@@ -20717,11 +21586,11 @@
       </c>
       <c r="F154" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G154" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="H154" s="2" t="s">
         <v>473</v>
@@ -20739,11 +21608,11 @@
       </c>
       <c r="F155" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="G155" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H155" s="2" t="s">
         <v>473</v>
@@ -20761,11 +21630,11 @@
       </c>
       <c r="F156" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="G156" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="H156" s="2" t="s">
         <v>473</v>
@@ -20783,11 +21652,11 @@
       </c>
       <c r="F157" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="G157" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>17</v>
+        <v>98</v>
       </c>
       <c r="H157" s="2" t="s">
         <v>473</v>
@@ -20805,11 +21674,11 @@
       </c>
       <c r="F158" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="G158" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="H158" s="2" t="s">
         <v>473</v>
@@ -20827,11 +21696,11 @@
       </c>
       <c r="F159" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G159" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H159" s="2" t="s">
         <v>473</v>
@@ -20849,11 +21718,11 @@
       </c>
       <c r="F160" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="G160" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="H160" s="2" t="s">
         <v>473</v>
@@ -20871,11 +21740,11 @@
       </c>
       <c r="F161" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="G161" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="H161" s="2" t="s">
         <v>473</v>
@@ -20893,11 +21762,11 @@
       </c>
       <c r="F162" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="G162" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="H162" s="2" t="s">
         <v>473</v>
@@ -20915,11 +21784,11 @@
       </c>
       <c r="F163" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="G163" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="H163" s="2" t="s">
         <v>473</v>
@@ -20937,11 +21806,11 @@
       </c>
       <c r="F164" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>71</v>
       </c>
       <c r="G164" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="H164" s="2" t="s">
         <v>473</v>
@@ -20959,11 +21828,11 @@
       </c>
       <c r="F165" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G165" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H165" s="2" t="s">
         <v>473</v>
@@ -20981,11 +21850,11 @@
       </c>
       <c r="F166" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="G166" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H166" s="2" t="s">
         <v>473</v>
@@ -21003,11 +21872,11 @@
       </c>
       <c r="F167" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="G167" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H167" s="2" t="s">
         <v>473</v>
@@ -21025,11 +21894,11 @@
       </c>
       <c r="F168" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>67</v>
       </c>
       <c r="G168" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="H168" s="2" t="s">
         <v>473</v>
@@ -21047,11 +21916,11 @@
       </c>
       <c r="F169" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="G169" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="H169" s="2" t="s">
         <v>473</v>
@@ -21069,11 +21938,11 @@
       </c>
       <c r="F170" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="G170" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="H170" s="2" t="s">
         <v>473</v>
@@ -21091,11 +21960,11 @@
       </c>
       <c r="F171" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="G171" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="H171" s="2" t="s">
         <v>473</v>
@@ -21113,11 +21982,11 @@
       </c>
       <c r="F172" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="G172" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="H172" s="2" t="s">
         <v>473</v>
@@ -21135,11 +22004,11 @@
       </c>
       <c r="F173" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="G173" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="H173" s="2" t="s">
         <v>473</v>
@@ -21157,11 +22026,11 @@
       </c>
       <c r="F174" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="G174" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="H174" s="2" t="s">
         <v>473</v>
@@ -21179,11 +22048,11 @@
       </c>
       <c r="F175" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>96</v>
+        <v>3</v>
       </c>
       <c r="G175" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="H175" s="2" t="s">
         <v>473</v>
@@ -21201,11 +22070,11 @@
       </c>
       <c r="F176" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="G176" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="H176" s="2" t="s">
         <v>473</v>
@@ -21223,11 +22092,11 @@
       </c>
       <c r="F177" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="G177" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="H177" s="2" t="s">
         <v>473</v>
@@ -21245,11 +22114,11 @@
       </c>
       <c r="F178" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="G178" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="H178" s="2" t="s">
         <v>473</v>
@@ -21267,11 +22136,11 @@
       </c>
       <c r="F179" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="G179" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="H179" s="2" t="s">
         <v>473</v>
@@ -21289,11 +22158,11 @@
       </c>
       <c r="F180" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="G180" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="H180" s="2" t="s">
         <v>473</v>
@@ -21311,11 +22180,11 @@
       </c>
       <c r="F181" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="G181" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="H181" s="2" t="s">
         <v>473</v>
@@ -21333,11 +22202,11 @@
       </c>
       <c r="F182" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G182" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="H182" s="2" t="s">
         <v>473</v>
@@ -21355,7 +22224,7 @@
       </c>
       <c r="F183" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="G183" s="2">
         <f t="shared" ca="1" si="3"/>
@@ -21377,11 +22246,11 @@
       </c>
       <c r="F184" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>94</v>
+        <v>25</v>
       </c>
       <c r="G184" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="H184" s="2" t="s">
         <v>473</v>
@@ -21399,11 +22268,11 @@
       </c>
       <c r="F185" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="G185" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H185" s="2" t="s">
         <v>473</v>
@@ -21421,7 +22290,7 @@
       </c>
       <c r="F186" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="G186" s="2">
         <f t="shared" ca="1" si="3"/>
@@ -21443,11 +22312,11 @@
       </c>
       <c r="F187" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G187" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>75</v>
       </c>
       <c r="H187" s="2" t="s">
         <v>473</v>
@@ -21465,11 +22334,11 @@
       </c>
       <c r="F188" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="G188" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>89</v>
+        <v>34</v>
       </c>
       <c r="H188" s="2" t="s">
         <v>473</v>
@@ -21487,11 +22356,11 @@
       </c>
       <c r="F189" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="G189" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="H189" s="2" t="s">
         <v>473</v>
@@ -21509,11 +22378,11 @@
       </c>
       <c r="F190" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="G190" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="H190" s="2" t="s">
         <v>473</v>
@@ -21531,11 +22400,11 @@
       </c>
       <c r="F191" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="G191" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="H191" s="2" t="s">
         <v>473</v>
@@ -21553,11 +22422,11 @@
       </c>
       <c r="F192" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="G192" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="H192" s="2" t="s">
         <v>473</v>
@@ -21575,11 +22444,11 @@
       </c>
       <c r="F193" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="G193" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="H193" s="2" t="s">
         <v>473</v>
@@ -21597,11 +22466,11 @@
       </c>
       <c r="F194" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="G194" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>62</v>
       </c>
       <c r="H194" s="2" t="s">
         <v>473</v>
@@ -21619,11 +22488,11 @@
       </c>
       <c r="F195" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="G195" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="H195" s="2" t="s">
         <v>473</v>
@@ -21641,11 +22510,11 @@
       </c>
       <c r="F196" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="G196" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="H196" s="2" t="s">
         <v>473</v>
@@ -21663,11 +22532,11 @@
       </c>
       <c r="F197" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G197" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="H197" s="2" t="s">
         <v>473</v>
@@ -21685,11 +22554,11 @@
       </c>
       <c r="F198" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="G198" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="H198" s="2" t="s">
         <v>473</v>
@@ -21707,11 +22576,11 @@
       </c>
       <c r="F199" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G199" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="H199" s="2" t="s">
         <v>473</v>
@@ -21732,11 +22601,11 @@
       </c>
       <c r="F200" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>92</v>
+        <v>5</v>
       </c>
       <c r="G200" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H200" s="2" t="s">
         <v>473</v>
@@ -21757,11 +22626,11 @@
       </c>
       <c r="F201" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="G201" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H201" s="2" t="s">
         <v>473</v>

--- a/daveydark/src/Database.xlsx
+++ b/daveydark/src/Database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\APEX -hackathon\.venv\APEX-Hackathon\daveydark\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4537C48-BE34-4CAC-8289-F625100E8C0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF863BB3-310F-4667-A235-5F664FE85EC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2771" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2772" uniqueCount="480">
   <si>
     <t>email</t>
   </si>
@@ -1460,6 +1460,9 @@
   </si>
   <si>
     <t>item_request</t>
+  </si>
+  <si>
+    <t>views</t>
   </si>
 </sst>
 </file>
@@ -1805,10 +1808,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L200"/>
+  <dimension ref="A1:M200"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1821,9 +1824,10 @@
     <col min="8" max="8" width="21.26953125" customWidth="1"/>
     <col min="9" max="9" width="10.81640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" customHeight="1">
+    <row r="1" spans="1:13" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1860,8 +1864,11 @@
       <c r="L1" s="2" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="15.75" customHeight="1">
+      <c r="M1" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -1898,8 +1905,11 @@
       <c r="L2" s="2">
         <v>1786215829</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="15.75" customHeight="1">
+      <c r="M2">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -1936,8 +1946,11 @@
       <c r="L3" s="2">
         <v>4419996188</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="15.75" customHeight="1">
+      <c r="M3">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -1974,8 +1987,11 @@
       <c r="L4" s="2">
         <v>4764863649</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="15.75" customHeight="1">
+      <c r="M4">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>25</v>
       </c>
@@ -2012,8 +2028,11 @@
       <c r="L5" s="2">
         <v>6218226160</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" ht="15.75" customHeight="1">
+      <c r="M5">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>29</v>
       </c>
@@ -2050,8 +2069,11 @@
       <c r="L6" s="2">
         <v>6774872204</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" ht="15.75" customHeight="1">
+      <c r="M6">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>33</v>
       </c>
@@ -2088,8 +2110,11 @@
       <c r="L7" s="2">
         <v>6830241569</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" ht="15.75" customHeight="1">
+      <c r="M7">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>37</v>
       </c>
@@ -2126,8 +2151,11 @@
       <c r="L8" s="2">
         <v>7271773855</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" ht="15.75" customHeight="1">
+      <c r="M8">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>41</v>
       </c>
@@ -2164,8 +2192,11 @@
       <c r="L9" s="2">
         <v>8434769406</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" ht="15.75" customHeight="1">
+      <c r="M9">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>45</v>
       </c>
@@ -2202,8 +2233,11 @@
       <c r="L10" s="2">
         <v>8696718994</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" ht="15.75" customHeight="1">
+      <c r="M10">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>49</v>
       </c>
@@ -2240,8 +2274,11 @@
       <c r="L11" s="2">
         <v>2213504143</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" ht="15.75" customHeight="1">
+      <c r="M11">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>53</v>
       </c>
@@ -2278,8 +2315,11 @@
       <c r="L12" s="2">
         <v>2318507021</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" ht="15.75" customHeight="1">
+      <c r="M12">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>58</v>
       </c>
@@ -2316,8 +2356,11 @@
       <c r="L13" s="2">
         <v>2426391627</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" ht="15.75" customHeight="1">
+      <c r="M13">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15.75" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>62</v>
       </c>
@@ -2354,8 +2397,11 @@
       <c r="L14" s="2">
         <v>3622677360</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" ht="15.75" customHeight="1">
+      <c r="M14">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="15.75" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>66</v>
       </c>
@@ -2392,8 +2438,11 @@
       <c r="L15" s="2">
         <v>4419996188</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" ht="15.75" customHeight="1">
+      <c r="M15">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="15.75" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>70</v>
       </c>
@@ -2430,8 +2479,11 @@
       <c r="L16" s="2">
         <v>4475416161</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" ht="15.75" customHeight="1">
+      <c r="M16">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="15.75" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>74</v>
       </c>
@@ -2468,8 +2520,11 @@
       <c r="L17" s="2">
         <v>4764863649</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" ht="15.75" customHeight="1">
+      <c r="M17">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="15.75" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>79</v>
       </c>
@@ -2506,8 +2561,11 @@
       <c r="L18" s="2">
         <v>5554432871</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" ht="15.75" customHeight="1">
+      <c r="M18">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="15.75" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>83</v>
       </c>
@@ -2544,8 +2602,11 @@
       <c r="L19" s="2">
         <v>7567083236</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" ht="14.5">
+      <c r="M19">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="14.5">
       <c r="A20" s="1" t="s">
         <v>87</v>
       </c>
@@ -2582,8 +2643,11 @@
       <c r="L20" s="2">
         <v>8189842209</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" ht="14.5">
+      <c r="M20">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="14.5">
       <c r="A21" s="1" t="s">
         <v>91</v>
       </c>
@@ -2620,8 +2684,11 @@
       <c r="L21" s="2">
         <v>9251469986</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" ht="14.5">
+      <c r="M21">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="14.5">
       <c r="A22" s="1" t="s">
         <v>95</v>
       </c>
@@ -2658,8 +2725,11 @@
       <c r="L22" s="2">
         <v>9288360791</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" ht="14.5">
+      <c r="M22">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="14.5">
       <c r="A23" s="1" t="s">
         <v>99</v>
       </c>
@@ -2696,8 +2766,11 @@
       <c r="L23" s="2">
         <v>2423972303</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" ht="14.5">
+      <c r="M23">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="14.5">
       <c r="A24" s="1" t="s">
         <v>103</v>
       </c>
@@ -2734,8 +2807,11 @@
       <c r="L24" s="2">
         <v>1772492382</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" ht="14.5">
+      <c r="M24">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="14.5">
       <c r="A25" s="1" t="s">
         <v>107</v>
       </c>
@@ -2772,8 +2848,11 @@
       <c r="L25" s="2">
         <v>2423972303</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" ht="14.5">
+      <c r="M25">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="14.5">
       <c r="A26" s="1" t="s">
         <v>111</v>
       </c>
@@ -2810,8 +2889,11 @@
       <c r="L26" s="2">
         <v>4139642861</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" ht="14.5">
+      <c r="M26">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="14.5">
       <c r="A27" s="1" t="s">
         <v>115</v>
       </c>
@@ -2848,8 +2930,11 @@
       <c r="L27" s="2">
         <v>4392534942</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" ht="14.5">
+      <c r="M27">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="14.5">
       <c r="A28" s="1" t="s">
         <v>119</v>
       </c>
@@ -2886,8 +2971,11 @@
       <c r="L28" s="2">
         <v>5554432871</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" ht="14.5">
+      <c r="M28">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="14.5">
       <c r="A29" s="1" t="s">
         <v>123</v>
       </c>
@@ -2924,8 +3012,11 @@
       <c r="L29" s="2">
         <v>6436566881</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" ht="14.5">
+      <c r="M29">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="14.5">
       <c r="A30" s="1" t="s">
         <v>127</v>
       </c>
@@ -2962,8 +3053,11 @@
       <c r="L30" s="2">
         <v>7607347124</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" ht="14.5">
+      <c r="M30">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="14.5">
       <c r="A31" s="1" t="s">
         <v>131</v>
       </c>
@@ -3000,8 +3094,11 @@
       <c r="L31" s="2">
         <v>8289808476</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" ht="14.5">
+      <c r="M31">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="14.5">
       <c r="A32" s="1" t="s">
         <v>135</v>
       </c>
@@ -3038,8 +3135,11 @@
       <c r="L32" s="2">
         <v>9605185003</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" ht="14.5">
+      <c r="M32">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="14.5">
       <c r="A33" s="1" t="s">
         <v>139</v>
       </c>
@@ -3076,8 +3176,11 @@
       <c r="L33" s="2">
         <v>5904803580</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" ht="14.5">
+      <c r="M33">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="14.5">
       <c r="A34" s="1" t="s">
         <v>144</v>
       </c>
@@ -3114,8 +3217,11 @@
       <c r="L34" s="2">
         <v>1290236114</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" ht="14.5">
+      <c r="M34">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="14.5">
       <c r="A35" s="1" t="s">
         <v>148</v>
       </c>
@@ -3152,8 +3258,11 @@
       <c r="L35" s="2">
         <v>1334416271</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" ht="14.5">
+      <c r="M35">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="14.5">
       <c r="A36" s="1" t="s">
         <v>152</v>
       </c>
@@ -3190,8 +3299,11 @@
       <c r="L36" s="2">
         <v>1510090180</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" ht="14.5">
+      <c r="M36">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="14.5">
       <c r="A37" s="1" t="s">
         <v>156</v>
       </c>
@@ -3228,8 +3340,11 @@
       <c r="L37" s="2">
         <v>2426391627</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" ht="14.5">
+      <c r="M37">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="14.5">
       <c r="A38" s="1" t="s">
         <v>160</v>
       </c>
@@ -3266,8 +3381,11 @@
       <c r="L38" s="2">
         <v>2959405228</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" ht="14.5">
+      <c r="M38">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="14.5">
       <c r="A39" s="1" t="s">
         <v>164</v>
       </c>
@@ -3304,8 +3422,11 @@
       <c r="L39" s="2">
         <v>3768275696</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" ht="14.5">
+      <c r="M39">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="14.5">
       <c r="A40" s="1" t="s">
         <v>168</v>
       </c>
@@ -3342,8 +3463,11 @@
       <c r="L40" s="2">
         <v>4419996188</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" ht="14.5">
+      <c r="M40">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="14.5">
       <c r="A41" s="1" t="s">
         <v>172</v>
       </c>
@@ -3380,8 +3504,11 @@
       <c r="L41" s="2">
         <v>4993915684</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" ht="14.5">
+      <c r="M41">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="14.5">
       <c r="A42" s="1" t="s">
         <v>176</v>
       </c>
@@ -3418,8 +3545,11 @@
       <c r="L42" s="2">
         <v>5904803580</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" ht="14.5">
+      <c r="M42">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="14.5">
       <c r="A43" s="1" t="s">
         <v>181</v>
       </c>
@@ -3456,8 +3586,11 @@
       <c r="L43" s="2">
         <v>1510090180</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" ht="14.5">
+      <c r="M43">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="14.5">
       <c r="A44" s="1" t="s">
         <v>185</v>
       </c>
@@ -3494,8 +3627,11 @@
       <c r="L44" s="2">
         <v>1834653378</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" ht="14.5">
+      <c r="M44">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="14.5">
       <c r="A45" s="1" t="s">
         <v>189</v>
       </c>
@@ -3532,8 +3668,11 @@
       <c r="L45" s="2">
         <v>3498447263</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" ht="14.5">
+      <c r="M45">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="14.5">
       <c r="A46" s="1" t="s">
         <v>193</v>
       </c>
@@ -3570,8 +3709,11 @@
       <c r="L46" s="2">
         <v>3768275696</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" ht="14.5">
+      <c r="M46">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="14.5">
       <c r="A47" s="1" t="s">
         <v>197</v>
       </c>
@@ -3608,8 +3750,11 @@
       <c r="L47" s="2">
         <v>4139642861</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" ht="14.5">
+      <c r="M47">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="14.5">
       <c r="A48" s="1" t="s">
         <v>202</v>
       </c>
@@ -3646,8 +3791,11 @@
       <c r="L48" s="2">
         <v>4475416161</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" ht="14.5">
+      <c r="M48">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="14.5">
       <c r="A49" s="1" t="s">
         <v>206</v>
       </c>
@@ -3684,8 +3832,11 @@
       <c r="L49" s="2">
         <v>5584712927</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" ht="14.5">
+      <c r="M49">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="14.5">
       <c r="A50" s="1" t="s">
         <v>210</v>
       </c>
@@ -3722,8 +3873,11 @@
       <c r="L50" s="2">
         <v>5705131129</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" ht="14.5">
+      <c r="M50">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" ht="14.5">
       <c r="A51" s="1" t="s">
         <v>214</v>
       </c>
@@ -3760,8 +3914,11 @@
       <c r="L51" s="2">
         <v>8289808476</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" ht="14.5">
+      <c r="M51">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" ht="14.5">
       <c r="A52" s="1" t="s">
         <v>218</v>
       </c>
@@ -3798,8 +3955,11 @@
       <c r="L52" s="2">
         <v>8351124961</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" ht="14.5">
+      <c r="M52">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" ht="14.5">
       <c r="A53" s="1" t="s">
         <v>222</v>
       </c>
@@ -3836,8 +3996,11 @@
       <c r="L53" s="2">
         <v>2318507021</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" ht="14.5">
+      <c r="M53">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" ht="14.5">
       <c r="A54" s="1" t="s">
         <v>226</v>
       </c>
@@ -3874,8 +4037,11 @@
       <c r="L54" s="2">
         <v>3216098731</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" ht="14.5">
+      <c r="M54">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" ht="14.5">
       <c r="A55" s="1" t="s">
         <v>230</v>
       </c>
@@ -3912,8 +4078,11 @@
       <c r="L55" s="2">
         <v>4227453256</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" ht="14.5">
+      <c r="M55">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" ht="14.5">
       <c r="A56" s="1" t="s">
         <v>234</v>
       </c>
@@ -3950,8 +4119,11 @@
       <c r="L56" s="2">
         <v>5752832299</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" ht="14.5">
+      <c r="M56">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" ht="14.5">
       <c r="A57" s="1" t="s">
         <v>238</v>
       </c>
@@ -3988,8 +4160,11 @@
       <c r="L57" s="2">
         <v>6830241569</v>
       </c>
-    </row>
-    <row r="58" spans="1:12" ht="14.5">
+      <c r="M57">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" ht="14.5">
       <c r="A58" s="1" t="s">
         <v>242</v>
       </c>
@@ -4026,8 +4201,11 @@
       <c r="L58" s="2">
         <v>7271773855</v>
       </c>
-    </row>
-    <row r="59" spans="1:12" ht="14.5">
+      <c r="M58">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" ht="14.5">
       <c r="A59" s="1" t="s">
         <v>246</v>
       </c>
@@ -4064,8 +4242,11 @@
       <c r="L59" s="2">
         <v>8696718994</v>
       </c>
-    </row>
-    <row r="60" spans="1:12" ht="14.5">
+      <c r="M59">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" ht="14.5">
       <c r="A60" s="1" t="s">
         <v>250</v>
       </c>
@@ -4102,8 +4283,11 @@
       <c r="L60" s="2">
         <v>9251469986</v>
       </c>
-    </row>
-    <row r="61" spans="1:12" ht="14.5">
+      <c r="M60">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" ht="14.5">
       <c r="A61" s="1" t="s">
         <v>254</v>
       </c>
@@ -4140,702 +4324,427 @@
       <c r="L61" s="2">
         <v>1060684981</v>
       </c>
-    </row>
-    <row r="62" spans="1:12" ht="14.5">
+      <c r="M61">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" ht="14.5">
       <c r="B62" s="1"/>
-      <c r="L62" s="2">
-        <v>1060684981</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" ht="15.75" customHeight="1">
-      <c r="L63" s="2">
-        <v>1786215829</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" ht="15.75" customHeight="1">
-      <c r="L64" s="2">
-        <v>2318507021</v>
-      </c>
+      <c r="L62" s="2"/>
+    </row>
+    <row r="63" spans="1:13" ht="15.75" customHeight="1">
+      <c r="L63" s="2"/>
+    </row>
+    <row r="64" spans="1:13" ht="15.75" customHeight="1">
+      <c r="L64" s="2"/>
     </row>
     <row r="65" spans="12:12" ht="15.75" customHeight="1">
-      <c r="L65" s="2">
-        <v>2959405228</v>
-      </c>
+      <c r="L65" s="2"/>
     </row>
     <row r="66" spans="12:12" ht="15.75" customHeight="1">
-      <c r="L66" s="2">
-        <v>4764863649</v>
-      </c>
+      <c r="L66" s="2"/>
     </row>
     <row r="67" spans="12:12" ht="15.75" customHeight="1">
-      <c r="L67" s="2">
-        <v>6218226160</v>
-      </c>
+      <c r="L67" s="2"/>
     </row>
     <row r="68" spans="12:12" ht="15.75" customHeight="1">
-      <c r="L68" s="2">
-        <v>6774872204</v>
-      </c>
+      <c r="L68" s="2"/>
     </row>
     <row r="69" spans="12:12" ht="15.75" customHeight="1">
-      <c r="L69" s="2">
-        <v>7607347124</v>
-      </c>
+      <c r="L69" s="2"/>
     </row>
     <row r="70" spans="12:12" ht="15.75" customHeight="1">
-      <c r="L70" s="2">
-        <v>8696718994</v>
-      </c>
+      <c r="L70" s="2"/>
     </row>
     <row r="71" spans="12:12" ht="15.75" customHeight="1">
-      <c r="L71" s="2">
-        <v>3216098731</v>
-      </c>
+      <c r="L71" s="2"/>
     </row>
     <row r="72" spans="12:12" ht="15.75" customHeight="1">
-      <c r="L72" s="2">
-        <v>3622677360</v>
-      </c>
+      <c r="L72" s="2"/>
     </row>
     <row r="73" spans="12:12" ht="15.75" customHeight="1">
-      <c r="L73" s="2">
-        <v>3768275696</v>
-      </c>
+      <c r="L73" s="2"/>
     </row>
     <row r="74" spans="12:12" ht="15.75" customHeight="1">
-      <c r="L74" s="2">
-        <v>4993915684</v>
-      </c>
+      <c r="L74" s="2"/>
     </row>
     <row r="75" spans="12:12" ht="15.75" customHeight="1">
-      <c r="L75" s="2">
-        <v>5398610605</v>
-      </c>
+      <c r="L75" s="2"/>
     </row>
     <row r="76" spans="12:12" ht="15.75" customHeight="1">
-      <c r="L76" s="2">
-        <v>5588289702</v>
-      </c>
+      <c r="L76" s="2"/>
     </row>
     <row r="77" spans="12:12" ht="15.75" customHeight="1">
-      <c r="L77" s="2">
-        <v>5752832299</v>
-      </c>
+      <c r="L77" s="2"/>
     </row>
     <row r="78" spans="12:12" ht="15.75" customHeight="1">
-      <c r="L78" s="2">
-        <v>7567083236</v>
-      </c>
+      <c r="L78" s="2"/>
     </row>
     <row r="79" spans="12:12" ht="15.75" customHeight="1">
-      <c r="L79" s="2">
-        <v>9288360791</v>
-      </c>
+      <c r="L79" s="2"/>
     </row>
     <row r="80" spans="12:12" ht="15.75" customHeight="1">
-      <c r="L80" s="2">
-        <v>1510090180</v>
-      </c>
+      <c r="L80" s="2"/>
     </row>
     <row r="81" spans="12:12" ht="15.75" customHeight="1">
-      <c r="L81" s="2">
-        <v>1772492382</v>
-      </c>
+      <c r="L81" s="2"/>
     </row>
     <row r="82" spans="12:12" ht="15.75" customHeight="1">
-      <c r="L82" s="2">
-        <v>2426391627</v>
-      </c>
+      <c r="L82" s="2"/>
     </row>
     <row r="83" spans="12:12" ht="15.75" customHeight="1">
-      <c r="L83" s="2">
-        <v>4475416161</v>
-      </c>
+      <c r="L83" s="2"/>
     </row>
     <row r="84" spans="12:12" ht="15.75" customHeight="1">
-      <c r="L84" s="2">
-        <v>5752832299</v>
-      </c>
+      <c r="L84" s="2"/>
     </row>
     <row r="85" spans="12:12" ht="15.75" customHeight="1">
-      <c r="L85" s="2">
-        <v>5904803580</v>
-      </c>
+      <c r="L85" s="2"/>
     </row>
     <row r="86" spans="12:12" ht="15.75" customHeight="1">
-      <c r="L86" s="2">
-        <v>6436566881</v>
-      </c>
+      <c r="L86" s="2"/>
     </row>
     <row r="87" spans="12:12" ht="15.75" customHeight="1">
-      <c r="L87" s="2">
-        <v>6774872204</v>
-      </c>
+      <c r="L87" s="2"/>
     </row>
     <row r="88" spans="12:12" ht="15.75" customHeight="1">
-      <c r="L88" s="2">
-        <v>7607347124</v>
-      </c>
+      <c r="L88" s="2"/>
     </row>
     <row r="89" spans="12:12" ht="15.75" customHeight="1">
-      <c r="L89" s="2">
-        <v>8189842209</v>
-      </c>
+      <c r="L89" s="2"/>
     </row>
     <row r="90" spans="12:12" ht="15.75" customHeight="1">
-      <c r="L90" s="2">
-        <v>1334416271</v>
-      </c>
+      <c r="L90" s="2"/>
     </row>
     <row r="91" spans="12:12" ht="15.75" customHeight="1">
-      <c r="L91" s="2">
-        <v>1834653378</v>
-      </c>
+      <c r="L91" s="2"/>
     </row>
     <row r="92" spans="12:12" ht="15.75" customHeight="1">
-      <c r="L92" s="2">
-        <v>1997639991</v>
-      </c>
+      <c r="L92" s="2"/>
     </row>
     <row r="93" spans="12:12" ht="15.75" customHeight="1">
-      <c r="L93" s="2">
-        <v>4139642861</v>
-      </c>
+      <c r="L93" s="2"/>
     </row>
     <row r="94" spans="12:12" ht="15.75" customHeight="1">
-      <c r="L94" s="2">
-        <v>5554432871</v>
-      </c>
+      <c r="L94" s="2"/>
     </row>
     <row r="95" spans="12:12" ht="15.75" customHeight="1">
-      <c r="L95" s="2">
-        <v>6349248040</v>
-      </c>
+      <c r="L95" s="2"/>
     </row>
     <row r="96" spans="12:12" ht="15.75" customHeight="1">
-      <c r="L96" s="2">
-        <v>7567083236</v>
-      </c>
+      <c r="L96" s="2"/>
     </row>
     <row r="97" spans="12:12" ht="15.75" customHeight="1">
-      <c r="L97" s="2">
-        <v>8434769406</v>
-      </c>
+      <c r="L97" s="2"/>
     </row>
     <row r="98" spans="12:12" ht="15.75" customHeight="1">
-      <c r="L98" s="2">
-        <v>9337878591</v>
-      </c>
+      <c r="L98" s="2"/>
     </row>
     <row r="99" spans="12:12" ht="15.75" customHeight="1">
-      <c r="L99" s="2">
-        <v>9605185003</v>
-      </c>
+      <c r="L99" s="2"/>
     </row>
     <row r="100" spans="12:12" ht="15.75" customHeight="1">
-      <c r="L100" s="2">
-        <v>1290236114</v>
-      </c>
+      <c r="L100" s="2"/>
     </row>
     <row r="101" spans="12:12" ht="15.75" customHeight="1">
-      <c r="L101" s="2">
-        <v>1997639991</v>
-      </c>
+      <c r="L101" s="2"/>
     </row>
     <row r="102" spans="12:12" ht="15.75" customHeight="1">
-      <c r="L102" s="2">
-        <v>4392534942</v>
-      </c>
+      <c r="L102" s="2"/>
     </row>
     <row r="103" spans="12:12" ht="15.75" customHeight="1">
-      <c r="L103" s="2">
-        <v>4993915684</v>
-      </c>
+      <c r="L103" s="2"/>
     </row>
     <row r="104" spans="12:12" ht="15.75" customHeight="1">
-      <c r="L104" s="2">
-        <v>5492534607</v>
-      </c>
+      <c r="L104" s="2"/>
     </row>
     <row r="105" spans="12:12" ht="15.75" customHeight="1">
-      <c r="L105" s="2">
-        <v>6436566881</v>
-      </c>
+      <c r="L105" s="2"/>
     </row>
     <row r="106" spans="12:12" ht="15.75" customHeight="1">
-      <c r="L106" s="2">
-        <v>6830241569</v>
-      </c>
+      <c r="L106" s="2"/>
     </row>
     <row r="107" spans="12:12" ht="15.75" customHeight="1">
-      <c r="L107" s="2">
-        <v>9337878591</v>
-      </c>
+      <c r="L107" s="2"/>
     </row>
     <row r="108" spans="12:12" ht="15.75" customHeight="1">
-      <c r="L108" s="2">
-        <v>5492534607</v>
-      </c>
+      <c r="L108" s="2"/>
     </row>
     <row r="109" spans="12:12" ht="15.75" customHeight="1">
-      <c r="L109" s="2">
-        <v>1772492382</v>
-      </c>
+      <c r="L109" s="2"/>
     </row>
     <row r="110" spans="12:12" ht="15.75" customHeight="1">
-      <c r="L110" s="2">
-        <v>2423972303</v>
-      </c>
+      <c r="L110" s="2"/>
     </row>
     <row r="111" spans="12:12" ht="15.75" customHeight="1">
-      <c r="L111" s="2">
-        <v>2959405228</v>
-      </c>
+      <c r="L111" s="2"/>
     </row>
     <row r="112" spans="12:12" ht="15.75" customHeight="1">
-      <c r="L112" s="2">
-        <v>3216098731</v>
-      </c>
+      <c r="L112" s="2"/>
     </row>
     <row r="113" spans="12:12" ht="15.75" customHeight="1">
-      <c r="L113" s="2">
-        <v>4227453256</v>
-      </c>
+      <c r="L113" s="2"/>
     </row>
     <row r="114" spans="12:12" ht="15.75" customHeight="1">
-      <c r="L114" s="2">
-        <v>5398610605</v>
-      </c>
+      <c r="L114" s="2"/>
     </row>
     <row r="115" spans="12:12" ht="15.75" customHeight="1">
-      <c r="L115" s="2">
-        <v>5588289702</v>
-      </c>
+      <c r="L115" s="2"/>
     </row>
     <row r="116" spans="12:12" ht="15.75" customHeight="1">
-      <c r="L116" s="2">
-        <v>5705131129</v>
-      </c>
+      <c r="L116" s="2"/>
     </row>
     <row r="117" spans="12:12" ht="15.75" customHeight="1">
-      <c r="L117" s="2">
-        <v>9251469986</v>
-      </c>
+      <c r="L117" s="2"/>
     </row>
     <row r="118" spans="12:12" ht="15.75" customHeight="1">
-      <c r="L118" s="2">
-        <v>9605185003</v>
-      </c>
+      <c r="L118" s="2"/>
     </row>
     <row r="119" spans="12:12" ht="15.75" customHeight="1">
-      <c r="L119" s="2">
-        <v>1834653378</v>
-      </c>
+      <c r="L119" s="2"/>
     </row>
     <row r="120" spans="12:12" ht="15.75" customHeight="1">
-      <c r="L120" s="2">
-        <v>1997639991</v>
-      </c>
+      <c r="L120" s="2"/>
     </row>
     <row r="121" spans="12:12" ht="15.75" customHeight="1">
-      <c r="L121" s="2">
-        <v>2213504143</v>
-      </c>
+      <c r="L121" s="2"/>
     </row>
     <row r="122" spans="12:12" ht="15.75" customHeight="1">
-      <c r="L122" s="2">
-        <v>3498447263</v>
-      </c>
+      <c r="L122" s="2"/>
     </row>
     <row r="123" spans="12:12" ht="15.75" customHeight="1">
-      <c r="L123" s="2">
-        <v>4392534942</v>
-      </c>
+      <c r="L123" s="2"/>
     </row>
     <row r="124" spans="12:12" ht="15.75" customHeight="1">
-      <c r="L124" s="2">
-        <v>5398610605</v>
-      </c>
+      <c r="L124" s="2"/>
     </row>
     <row r="125" spans="12:12" ht="15.75" customHeight="1">
-      <c r="L125" s="2">
-        <v>5705131129</v>
-      </c>
+      <c r="L125" s="2"/>
     </row>
     <row r="126" spans="12:12" ht="15.75" customHeight="1">
-      <c r="L126" s="2">
-        <v>6349248040</v>
-      </c>
+      <c r="L126" s="2"/>
     </row>
     <row r="127" spans="12:12" ht="15.75" customHeight="1">
-      <c r="L127" s="2">
-        <v>8351124961</v>
-      </c>
+      <c r="L127" s="2"/>
     </row>
     <row r="128" spans="12:12" ht="15.75" customHeight="1">
-      <c r="L128" s="2">
-        <v>1334416271</v>
-      </c>
+      <c r="L128" s="2"/>
     </row>
     <row r="129" spans="12:12" ht="15.75" customHeight="1">
-      <c r="L129" s="2">
-        <v>1786215829</v>
-      </c>
+      <c r="L129" s="2"/>
     </row>
     <row r="130" spans="12:12" ht="15.75" customHeight="1">
-      <c r="L130" s="2">
-        <v>3498447263</v>
-      </c>
+      <c r="L130" s="2"/>
     </row>
     <row r="131" spans="12:12" ht="15.75" customHeight="1">
-      <c r="L131" s="2">
-        <v>5492534607</v>
-      </c>
+      <c r="L131" s="2"/>
     </row>
     <row r="132" spans="12:12" ht="15.75" customHeight="1">
-      <c r="L132" s="2">
-        <v>5584712927</v>
-      </c>
+      <c r="L132" s="2"/>
     </row>
     <row r="133" spans="12:12" ht="15.75" customHeight="1">
-      <c r="L133" s="2">
-        <v>5588289702</v>
-      </c>
+      <c r="L133" s="2"/>
     </row>
     <row r="134" spans="12:12" ht="15.75" customHeight="1">
-      <c r="L134" s="2">
-        <v>6349248040</v>
-      </c>
+      <c r="L134" s="2"/>
     </row>
     <row r="135" spans="12:12" ht="15.75" customHeight="1">
-      <c r="L135" s="2">
-        <v>8189842209</v>
-      </c>
+      <c r="L135" s="2"/>
     </row>
     <row r="136" spans="12:12" ht="15.75" customHeight="1">
-      <c r="L136" s="2">
-        <v>8289808476</v>
-      </c>
+      <c r="L136" s="2"/>
     </row>
     <row r="137" spans="12:12" ht="15.75" customHeight="1">
-      <c r="L137" s="2">
-        <v>9288360791</v>
-      </c>
+      <c r="L137" s="2"/>
     </row>
     <row r="138" spans="12:12" ht="15.75" customHeight="1">
-      <c r="L138" s="2">
-        <v>1060684981</v>
-      </c>
+      <c r="L138" s="2"/>
     </row>
     <row r="139" spans="12:12" ht="15.75" customHeight="1">
-      <c r="L139" s="2">
-        <v>1290236114</v>
-      </c>
+      <c r="L139" s="2"/>
     </row>
     <row r="140" spans="12:12" ht="15.75" customHeight="1">
-      <c r="L140" s="2">
-        <v>2213504143</v>
-      </c>
+      <c r="L140" s="2"/>
     </row>
     <row r="141" spans="12:12" ht="15.75" customHeight="1">
-      <c r="L141" s="2">
-        <v>3622677360</v>
-      </c>
+      <c r="L141" s="2"/>
     </row>
     <row r="142" spans="12:12" ht="15.75" customHeight="1">
-      <c r="L142" s="2">
-        <v>4227453256</v>
-      </c>
+      <c r="L142" s="2"/>
     </row>
     <row r="143" spans="12:12" ht="15.75" customHeight="1">
-      <c r="L143" s="2">
-        <v>5584712927</v>
-      </c>
+      <c r="L143" s="2"/>
     </row>
     <row r="144" spans="12:12" ht="15.75" customHeight="1">
-      <c r="L144" s="2">
-        <v>6218226160</v>
-      </c>
+      <c r="L144" s="2"/>
     </row>
     <row r="145" spans="12:12" ht="15.75" customHeight="1">
-      <c r="L145" s="2">
-        <v>7271773855</v>
-      </c>
+      <c r="L145" s="2"/>
     </row>
     <row r="146" spans="12:12" ht="15.75" customHeight="1">
-      <c r="L146" s="2">
-        <v>8351124961</v>
-      </c>
+      <c r="L146" s="2"/>
     </row>
     <row r="147" spans="12:12" ht="15.75" customHeight="1">
-      <c r="L147" s="2">
-        <v>8434769406</v>
-      </c>
+      <c r="L147" s="2"/>
     </row>
     <row r="148" spans="12:12" ht="15.75" customHeight="1">
-      <c r="L148" s="2">
-        <v>9337878591</v>
-      </c>
+      <c r="L148" s="2"/>
     </row>
     <row r="149" spans="12:12" ht="15.75" customHeight="1">
-      <c r="L149" s="2">
-        <v>2012514783</v>
-      </c>
+      <c r="L149" s="2"/>
     </row>
     <row r="150" spans="12:12" ht="15.75" customHeight="1">
-      <c r="L150" s="2">
-        <v>2012514783</v>
-      </c>
+      <c r="L150" s="2"/>
     </row>
     <row r="151" spans="12:12" ht="15.75" customHeight="1">
-      <c r="L151" s="2">
-        <v>2781135799</v>
-      </c>
+      <c r="L151" s="2"/>
     </row>
     <row r="152" spans="12:12" ht="15.75" customHeight="1">
-      <c r="L152" s="2">
-        <v>4304232986</v>
-      </c>
+      <c r="L152" s="2"/>
     </row>
     <row r="153" spans="12:12" ht="15.75" customHeight="1">
-      <c r="L153" s="2">
-        <v>5669246590</v>
-      </c>
+      <c r="L153" s="2"/>
     </row>
     <row r="154" spans="12:12" ht="15.75" customHeight="1">
-      <c r="L154" s="2">
-        <v>6472435309</v>
-      </c>
+      <c r="L154" s="2"/>
     </row>
     <row r="155" spans="12:12" ht="15.75" customHeight="1">
-      <c r="L155" s="2">
-        <v>6838157387</v>
-      </c>
+      <c r="L155" s="2"/>
     </row>
     <row r="156" spans="12:12" ht="15.75" customHeight="1">
-      <c r="L156" s="2">
-        <v>7359359432</v>
-      </c>
+      <c r="L156" s="2"/>
     </row>
     <row r="157" spans="12:12" ht="15.75" customHeight="1">
-      <c r="L157" s="2">
-        <v>7573495775</v>
-      </c>
+      <c r="L157" s="2"/>
     </row>
     <row r="158" spans="12:12" ht="15.75" customHeight="1">
-      <c r="L158" s="2">
-        <v>7583292085</v>
-      </c>
+      <c r="L158" s="2"/>
     </row>
     <row r="159" spans="12:12" ht="15.75" customHeight="1">
-      <c r="L159" s="2">
-        <v>1623206015</v>
-      </c>
+      <c r="L159" s="2"/>
     </row>
     <row r="160" spans="12:12" ht="15.75" customHeight="1">
-      <c r="L160" s="2">
-        <v>2536662733</v>
-      </c>
+      <c r="L160" s="2"/>
     </row>
     <row r="161" spans="12:12" ht="15.75" customHeight="1">
-      <c r="L161" s="2">
-        <v>2701776538</v>
-      </c>
+      <c r="L161" s="2"/>
     </row>
     <row r="162" spans="12:12" ht="15.75" customHeight="1">
-      <c r="L162" s="2">
-        <v>4698968233</v>
-      </c>
+      <c r="L162" s="2"/>
     </row>
     <row r="163" spans="12:12" ht="15.75" customHeight="1">
-      <c r="L163" s="2">
-        <v>4939130813</v>
-      </c>
+      <c r="L163" s="2"/>
     </row>
     <row r="164" spans="12:12" ht="15.75" customHeight="1">
-      <c r="L164" s="2">
-        <v>5705430657</v>
-      </c>
+      <c r="L164" s="2"/>
     </row>
     <row r="165" spans="12:12" ht="15.75" customHeight="1">
-      <c r="L165" s="2">
-        <v>6234396004</v>
-      </c>
+      <c r="L165" s="2"/>
     </row>
     <row r="166" spans="12:12" ht="15.75" customHeight="1">
-      <c r="L166" s="2">
-        <v>6673260031</v>
-      </c>
+      <c r="L166" s="2"/>
     </row>
     <row r="167" spans="12:12" ht="15.75" customHeight="1">
-      <c r="L167" s="2">
-        <v>6838157387</v>
-      </c>
+      <c r="L167" s="2"/>
     </row>
     <row r="168" spans="12:12" ht="15.75" customHeight="1">
-      <c r="L168" s="2">
-        <v>7557530029</v>
-      </c>
+      <c r="L168" s="2"/>
     </row>
     <row r="169" spans="12:12" ht="15.75" customHeight="1">
-      <c r="L169" s="2">
-        <v>1623206015</v>
-      </c>
+      <c r="L169" s="2"/>
     </row>
     <row r="170" spans="12:12" ht="15.75" customHeight="1">
-      <c r="L170" s="2">
-        <v>2701776538</v>
-      </c>
+      <c r="L170" s="2"/>
     </row>
     <row r="171" spans="12:12" ht="15.75" customHeight="1">
-      <c r="L171" s="2">
-        <v>3344300168</v>
-      </c>
+      <c r="L171" s="2"/>
     </row>
     <row r="172" spans="12:12" ht="15.75" customHeight="1">
-      <c r="L172" s="2">
-        <v>3703606765</v>
-      </c>
+      <c r="L172" s="2"/>
     </row>
     <row r="173" spans="12:12" ht="15.75" customHeight="1">
-      <c r="L173" s="2">
-        <v>4570695856</v>
-      </c>
+      <c r="L173" s="2"/>
     </row>
     <row r="174" spans="12:12" ht="15.75" customHeight="1">
-      <c r="L174" s="2">
-        <v>4939130813</v>
-      </c>
+      <c r="L174" s="2"/>
     </row>
     <row r="175" spans="12:12" ht="15.75" customHeight="1">
-      <c r="L175" s="2">
-        <v>5443517562</v>
-      </c>
+      <c r="L175" s="2"/>
     </row>
     <row r="176" spans="12:12" ht="15.75" customHeight="1">
-      <c r="L176" s="2">
-        <v>7706689909</v>
-      </c>
+      <c r="L176" s="2"/>
     </row>
     <row r="177" spans="12:12" ht="15.75" customHeight="1">
-      <c r="L177" s="2">
-        <v>8536047771</v>
-      </c>
+      <c r="L177" s="2"/>
     </row>
     <row r="178" spans="12:12" ht="15.75" customHeight="1">
-      <c r="L178" s="2">
-        <v>9063899854</v>
-      </c>
+      <c r="L178" s="2"/>
     </row>
     <row r="179" spans="12:12" ht="15.75" customHeight="1">
-      <c r="L179" s="2">
-        <v>9926463230</v>
-      </c>
+      <c r="L179" s="2"/>
     </row>
     <row r="180" spans="12:12" ht="15.75" customHeight="1">
-      <c r="L180" s="2">
-        <v>1144106679</v>
-      </c>
+      <c r="L180" s="2"/>
     </row>
     <row r="181" spans="12:12" ht="15.75" customHeight="1">
-      <c r="L181" s="2">
-        <v>1144106679</v>
-      </c>
+      <c r="L181" s="2"/>
     </row>
     <row r="182" spans="12:12" ht="15.75" customHeight="1">
-      <c r="L182" s="2">
-        <v>3473126036</v>
-      </c>
+      <c r="L182" s="2"/>
     </row>
     <row r="183" spans="12:12" ht="15.75" customHeight="1">
-      <c r="L183" s="2">
-        <v>4304232986</v>
-      </c>
+      <c r="L183" s="2"/>
     </row>
     <row r="184" spans="12:12" ht="15.75" customHeight="1">
-      <c r="L184" s="2">
-        <v>4309845550</v>
-      </c>
+      <c r="L184" s="2"/>
     </row>
     <row r="185" spans="12:12" ht="15.75" customHeight="1">
-      <c r="L185" s="2">
-        <v>5805759552</v>
-      </c>
+      <c r="L185" s="2"/>
     </row>
     <row r="186" spans="12:12" ht="15.75" customHeight="1">
-      <c r="L186" s="2">
-        <v>6234396004</v>
-      </c>
+      <c r="L186" s="2"/>
     </row>
     <row r="187" spans="12:12" ht="15.75" customHeight="1">
-      <c r="L187" s="2">
-        <v>6813310311</v>
-      </c>
+      <c r="L187" s="2"/>
     </row>
     <row r="188" spans="12:12" ht="15.75" customHeight="1">
-      <c r="L188" s="2">
-        <v>7706689909</v>
-      </c>
+      <c r="L188" s="2"/>
     </row>
     <row r="189" spans="12:12" ht="15.75" customHeight="1">
-      <c r="L189" s="2">
-        <v>8536047771</v>
-      </c>
+      <c r="L189" s="2"/>
     </row>
     <row r="190" spans="12:12" ht="15.75" customHeight="1">
-      <c r="L190" s="2">
-        <v>1932617997</v>
-      </c>
+      <c r="L190" s="2"/>
     </row>
     <row r="191" spans="12:12" ht="15.75" customHeight="1">
-      <c r="L191" s="2">
-        <v>2349805204</v>
-      </c>
+      <c r="L191" s="2"/>
     </row>
     <row r="192" spans="12:12" ht="15.75" customHeight="1">
-      <c r="L192" s="2">
-        <v>3703606765</v>
-      </c>
+      <c r="L192" s="2"/>
     </row>
     <row r="193" spans="12:12" ht="15.75" customHeight="1">
-      <c r="L193" s="2">
-        <v>3758719321</v>
-      </c>
+      <c r="L193" s="2"/>
     </row>
     <row r="194" spans="12:12" ht="15.75" customHeight="1">
-      <c r="L194" s="2">
-        <v>4465586072</v>
-      </c>
+      <c r="L194" s="2"/>
     </row>
     <row r="195" spans="12:12" ht="15.75" customHeight="1">
-      <c r="L195" s="2">
-        <v>5553057177</v>
-      </c>
+      <c r="L195" s="2"/>
     </row>
     <row r="196" spans="12:12" ht="15.75" customHeight="1">
-      <c r="L196" s="2">
-        <v>5805759552</v>
-      </c>
+      <c r="L196" s="2"/>
     </row>
     <row r="197" spans="12:12" ht="15.75" customHeight="1">
-      <c r="L197" s="2">
-        <v>6098723915</v>
-      </c>
+      <c r="L197" s="2"/>
     </row>
     <row r="198" spans="12:12" ht="15.75" customHeight="1">
-      <c r="L198" s="2">
-        <v>7557530029</v>
-      </c>
+      <c r="L198" s="2"/>
     </row>
     <row r="199" spans="12:12" ht="15.75" customHeight="1">
-      <c r="L199" s="2">
-        <v>8700843070</v>
-      </c>
+      <c r="L199" s="2"/>
     </row>
     <row r="200" spans="12:12" ht="15.75" customHeight="1">
-      <c r="L200" s="2">
-        <v>1471956134</v>
-      </c>
+      <c r="L200" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18145,7 +18054,7 @@
       </c>
       <c r="G2" s="2">
         <f t="shared" ref="G2:G65" ca="1" si="0">RANDBETWEEN(0,100)</f>
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>16</v>
@@ -18169,7 +18078,7 @@
       </c>
       <c r="G3" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>16</v>
@@ -18193,7 +18102,7 @@
       </c>
       <c r="G4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>16</v>
@@ -18217,7 +18126,7 @@
       </c>
       <c r="G5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>16</v>
@@ -18241,7 +18150,7 @@
       </c>
       <c r="G6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>16</v>
@@ -18265,7 +18174,7 @@
       </c>
       <c r="G7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>16</v>
@@ -18289,7 +18198,7 @@
       </c>
       <c r="G8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>16</v>
@@ -18313,7 +18222,7 @@
       </c>
       <c r="G9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>71</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>16</v>
@@ -18337,7 +18246,7 @@
       </c>
       <c r="G10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>16</v>
@@ -18361,7 +18270,7 @@
       </c>
       <c r="G11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>16</v>
@@ -18385,7 +18294,7 @@
       </c>
       <c r="G12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>16</v>
@@ -18409,7 +18318,7 @@
       </c>
       <c r="G13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>16</v>
@@ -18433,7 +18342,7 @@
       </c>
       <c r="G14" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>16</v>
@@ -18457,7 +18366,7 @@
       </c>
       <c r="G15" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>76</v>
+        <v>5</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>16</v>
@@ -18481,7 +18390,7 @@
       </c>
       <c r="G16" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>47</v>
+        <v>99</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>16</v>
@@ -18505,7 +18414,7 @@
       </c>
       <c r="G17" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>16</v>
@@ -18529,7 +18438,7 @@
       </c>
       <c r="G18" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>16</v>
@@ -18553,7 +18462,7 @@
       </c>
       <c r="G19" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>16</v>
@@ -18577,7 +18486,7 @@
       </c>
       <c r="G20" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>16</v>
@@ -18601,7 +18510,7 @@
       </c>
       <c r="G21" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>16</v>
@@ -18625,7 +18534,7 @@
       </c>
       <c r="G22" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>16</v>
@@ -18649,7 +18558,7 @@
       </c>
       <c r="G23" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>16</v>
@@ -18673,7 +18582,7 @@
       </c>
       <c r="G24" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>16</v>
@@ -18697,7 +18606,7 @@
       </c>
       <c r="G25" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>16</v>
@@ -18721,7 +18630,7 @@
       </c>
       <c r="G26" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>16</v>
@@ -18745,7 +18654,7 @@
       </c>
       <c r="G27" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>16</v>
@@ -18769,7 +18678,7 @@
       </c>
       <c r="G28" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>16</v>
@@ -18793,7 +18702,7 @@
       </c>
       <c r="G29" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>16</v>
@@ -18817,7 +18726,7 @@
       </c>
       <c r="G30" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>16</v>
@@ -18841,7 +18750,7 @@
       </c>
       <c r="G31" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>16</v>
@@ -18865,7 +18774,7 @@
       </c>
       <c r="G32" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>16</v>
@@ -18889,7 +18798,7 @@
       </c>
       <c r="G33" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>16</v>
@@ -18913,7 +18822,7 @@
       </c>
       <c r="G34" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>79</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>16</v>
@@ -18937,7 +18846,7 @@
       </c>
       <c r="G35" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>16</v>
@@ -18961,7 +18870,7 @@
       </c>
       <c r="G36" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>16</v>
@@ -18985,7 +18894,7 @@
       </c>
       <c r="G37" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>16</v>
@@ -19009,7 +18918,7 @@
       </c>
       <c r="G38" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>16</v>
@@ -19033,7 +18942,7 @@
       </c>
       <c r="G39" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>96</v>
+        <v>4</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>16</v>
@@ -19057,7 +18966,7 @@
       </c>
       <c r="G40" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>88</v>
+        <v>31</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>16</v>
@@ -19081,7 +18990,7 @@
       </c>
       <c r="G41" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>16</v>
@@ -19105,7 +19014,7 @@
       </c>
       <c r="G42" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>16</v>
@@ -19129,7 +19038,7 @@
       </c>
       <c r="G43" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>16</v>
@@ -19153,7 +19062,7 @@
       </c>
       <c r="G44" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>16</v>
@@ -19177,7 +19086,7 @@
       </c>
       <c r="G45" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>16</v>
@@ -19201,7 +19110,7 @@
       </c>
       <c r="G46" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>16</v>
@@ -19225,7 +19134,7 @@
       </c>
       <c r="G47" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>16</v>
@@ -19249,7 +19158,7 @@
       </c>
       <c r="G48" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="H48" s="2" t="s">
         <v>16</v>
@@ -19273,7 +19182,7 @@
       </c>
       <c r="G49" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="H49" s="2" t="s">
         <v>16</v>
@@ -19297,7 +19206,7 @@
       </c>
       <c r="G50" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>16</v>
@@ -19321,7 +19230,7 @@
       </c>
       <c r="G51" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="H51" s="2" t="s">
         <v>78</v>
@@ -19345,7 +19254,7 @@
       </c>
       <c r="G52" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="H52" s="2" t="s">
         <v>78</v>
@@ -19369,7 +19278,7 @@
       </c>
       <c r="G53" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="H53" s="2" t="s">
         <v>78</v>
@@ -19393,7 +19302,7 @@
       </c>
       <c r="G54" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="H54" s="2" t="s">
         <v>78</v>
@@ -19417,7 +19326,7 @@
       </c>
       <c r="G55" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="H55" s="2" t="s">
         <v>78</v>
@@ -19441,7 +19350,7 @@
       </c>
       <c r="G56" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="H56" s="2" t="s">
         <v>78</v>
@@ -19465,7 +19374,7 @@
       </c>
       <c r="G57" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H57" s="2" t="s">
         <v>78</v>
@@ -19489,7 +19398,7 @@
       </c>
       <c r="G58" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>78</v>
@@ -19513,7 +19422,7 @@
       </c>
       <c r="G59" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="H59" s="2" t="s">
         <v>78</v>
@@ -19537,7 +19446,7 @@
       </c>
       <c r="G60" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="H60" s="2" t="s">
         <v>78</v>
@@ -19561,7 +19470,7 @@
       </c>
       <c r="G61" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="H61" s="2" t="s">
         <v>78</v>
@@ -19585,7 +19494,7 @@
       </c>
       <c r="G62" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="H62" s="2" t="s">
         <v>78</v>
@@ -19606,7 +19515,7 @@
       </c>
       <c r="G63" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="H63" s="2" t="s">
         <v>78</v>
@@ -19627,7 +19536,7 @@
       </c>
       <c r="G64" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="H64" s="2" t="s">
         <v>78</v>
@@ -19648,7 +19557,7 @@
       </c>
       <c r="G65" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>34</v>
+        <v>86</v>
       </c>
       <c r="H65" s="2" t="s">
         <v>78</v>
@@ -19669,7 +19578,7 @@
       </c>
       <c r="G66" s="2">
         <f t="shared" ref="G66:G81" ca="1" si="1">RANDBETWEEN(0,100)</f>
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="H66" s="2" t="s">
         <v>78</v>
@@ -19690,7 +19599,7 @@
       </c>
       <c r="G67" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="H67" s="2" t="s">
         <v>78</v>
@@ -19711,7 +19620,7 @@
       </c>
       <c r="G68" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="H68" s="2" t="s">
         <v>78</v>
@@ -19732,7 +19641,7 @@
       </c>
       <c r="G69" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="H69" s="2" t="s">
         <v>78</v>
@@ -19753,7 +19662,7 @@
       </c>
       <c r="G70" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="H70" s="2" t="s">
         <v>78</v>
@@ -19774,7 +19683,7 @@
       </c>
       <c r="G71" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="H71" s="2" t="s">
         <v>78</v>
@@ -19795,7 +19704,7 @@
       </c>
       <c r="G72" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="H72" s="2" t="s">
         <v>78</v>
@@ -19816,7 +19725,7 @@
       </c>
       <c r="G73" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="H73" s="2" t="s">
         <v>78</v>
@@ -19837,7 +19746,7 @@
       </c>
       <c r="G74" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>56</v>
+        <v>4</v>
       </c>
       <c r="H74" s="2" t="s">
         <v>78</v>
@@ -19858,7 +19767,7 @@
       </c>
       <c r="G75" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="H75" s="2" t="s">
         <v>78</v>
@@ -19879,7 +19788,7 @@
       </c>
       <c r="G76" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="H76" s="2" t="s">
         <v>78</v>
@@ -19900,7 +19809,7 @@
       </c>
       <c r="G77" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="H77" s="2" t="s">
         <v>78</v>
@@ -19921,7 +19830,7 @@
       </c>
       <c r="G78" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H78" s="2" t="s">
         <v>78</v>
@@ -19942,7 +19851,7 @@
       </c>
       <c r="G79" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="H79" s="2" t="s">
         <v>78</v>
@@ -19963,7 +19872,7 @@
       </c>
       <c r="G80" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="H80" s="2" t="s">
         <v>78</v>
@@ -19984,7 +19893,7 @@
       </c>
       <c r="G81" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="H81" s="2" t="s">
         <v>78</v>
@@ -20002,11 +19911,11 @@
       </c>
       <c r="F82" s="2">
         <f t="shared" ref="F82:G145" ca="1" si="2">RANDBETWEEN(0,100)</f>
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="G82" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="H82" s="2" t="s">
         <v>78</v>
@@ -20024,11 +19933,11 @@
       </c>
       <c r="F83" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="G83" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="H83" s="2" t="s">
         <v>78</v>
@@ -20046,11 +19955,11 @@
       </c>
       <c r="F84" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="G84" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="H84" s="2" t="s">
         <v>78</v>
@@ -20068,11 +19977,11 @@
       </c>
       <c r="F85" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="G85" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="H85" s="2" t="s">
         <v>78</v>
@@ -20090,11 +19999,11 @@
       </c>
       <c r="F86" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="G86" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="H86" s="2" t="s">
         <v>78</v>
@@ -20112,11 +20021,11 @@
       </c>
       <c r="F87" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="G87" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="H87" s="2" t="s">
         <v>78</v>
@@ -20134,11 +20043,11 @@
       </c>
       <c r="F88" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="G88" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="H88" s="2" t="s">
         <v>78</v>
@@ -20156,11 +20065,11 @@
       </c>
       <c r="F89" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="G89" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="H89" s="2" t="s">
         <v>78</v>
@@ -20178,11 +20087,11 @@
       </c>
       <c r="F90" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="G90" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="H90" s="2" t="s">
         <v>78</v>
@@ -20200,11 +20109,11 @@
       </c>
       <c r="F91" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="G91" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="H91" s="2" t="s">
         <v>78</v>
@@ -20222,11 +20131,11 @@
       </c>
       <c r="F92" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>98</v>
+        <v>45</v>
       </c>
       <c r="G92" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="H92" s="2" t="s">
         <v>78</v>
@@ -20244,11 +20153,11 @@
       </c>
       <c r="F93" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="G93" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>99</v>
+        <v>49</v>
       </c>
       <c r="H93" s="2" t="s">
         <v>78</v>
@@ -20266,11 +20175,11 @@
       </c>
       <c r="F94" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>81</v>
       </c>
       <c r="G94" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="H94" s="2" t="s">
         <v>78</v>
@@ -20288,11 +20197,11 @@
       </c>
       <c r="F95" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G95" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="H95" s="2" t="s">
         <v>78</v>
@@ -20310,11 +20219,11 @@
       </c>
       <c r="F96" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G96" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="H96" s="2" t="s">
         <v>78</v>
@@ -20332,11 +20241,11 @@
       </c>
       <c r="F97" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="G97" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="H97" s="2" t="s">
         <v>78</v>
@@ -20354,11 +20263,11 @@
       </c>
       <c r="F98" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="G98" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="H98" s="2" t="s">
         <v>78</v>
@@ -20376,11 +20285,11 @@
       </c>
       <c r="F99" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G99" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H99" s="2" t="s">
         <v>78</v>
@@ -20398,11 +20307,11 @@
       </c>
       <c r="F100" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="G100" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="H100" s="2" t="s">
         <v>78</v>
@@ -20420,11 +20329,11 @@
       </c>
       <c r="F101" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="G101" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="H101" s="2" t="s">
         <v>143</v>
@@ -20442,11 +20351,11 @@
       </c>
       <c r="F102" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="G102" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="H102" s="2" t="s">
         <v>143</v>
@@ -20464,11 +20373,11 @@
       </c>
       <c r="F103" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>32</v>
+        <v>97</v>
       </c>
       <c r="G103" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>98</v>
       </c>
       <c r="H103" s="2" t="s">
         <v>143</v>
@@ -20486,11 +20395,11 @@
       </c>
       <c r="F104" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="G104" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="H104" s="2" t="s">
         <v>143</v>
@@ -20508,11 +20417,11 @@
       </c>
       <c r="F105" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>99</v>
+        <v>67</v>
       </c>
       <c r="G105" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="H105" s="2" t="s">
         <v>143</v>
@@ -20530,11 +20439,11 @@
       </c>
       <c r="F106" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="G106" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="H106" s="2" t="s">
         <v>143</v>
@@ -20552,11 +20461,11 @@
       </c>
       <c r="F107" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="G107" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="H107" s="2" t="s">
         <v>143</v>
@@ -20574,11 +20483,11 @@
       </c>
       <c r="F108" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="G108" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>97</v>
+        <v>33</v>
       </c>
       <c r="H108" s="2" t="s">
         <v>143</v>
@@ -20596,11 +20505,11 @@
       </c>
       <c r="F109" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="G109" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>95</v>
       </c>
       <c r="H109" s="2" t="s">
         <v>143</v>
@@ -20618,11 +20527,11 @@
       </c>
       <c r="F110" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="G110" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>76</v>
+        <v>2</v>
       </c>
       <c r="H110" s="2" t="s">
         <v>143</v>
@@ -20640,11 +20549,11 @@
       </c>
       <c r="F111" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="G111" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="H111" s="2" t="s">
         <v>143</v>
@@ -20662,11 +20571,11 @@
       </c>
       <c r="F112" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G112" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="H112" s="2" t="s">
         <v>143</v>
@@ -20684,11 +20593,11 @@
       </c>
       <c r="F113" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="G113" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H113" s="2" t="s">
         <v>143</v>
@@ -20706,11 +20615,11 @@
       </c>
       <c r="F114" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="G114" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="H114" s="2" t="s">
         <v>143</v>
@@ -20728,11 +20637,11 @@
       </c>
       <c r="F115" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="G115" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="H115" s="2" t="s">
         <v>143</v>
@@ -20750,11 +20659,11 @@
       </c>
       <c r="F116" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="G116" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="H116" s="2" t="s">
         <v>143</v>
@@ -20772,11 +20681,11 @@
       </c>
       <c r="F117" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="G117" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="H117" s="2" t="s">
         <v>143</v>
@@ -20794,11 +20703,11 @@
       </c>
       <c r="F118" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="G118" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="H118" s="2" t="s">
         <v>143</v>
@@ -20816,11 +20725,11 @@
       </c>
       <c r="F119" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="G119" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="H119" s="2" t="s">
         <v>143</v>
@@ -20838,11 +20747,11 @@
       </c>
       <c r="F120" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="G120" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>99</v>
+        <v>46</v>
       </c>
       <c r="H120" s="2" t="s">
         <v>143</v>
@@ -20860,11 +20769,11 @@
       </c>
       <c r="F121" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="G121" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="H121" s="2" t="s">
         <v>143</v>
@@ -20882,11 +20791,11 @@
       </c>
       <c r="F122" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>96</v>
+        <v>32</v>
       </c>
       <c r="G122" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H122" s="2" t="s">
         <v>143</v>
@@ -20904,11 +20813,11 @@
       </c>
       <c r="F123" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="G123" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="H123" s="2" t="s">
         <v>143</v>
@@ -20926,11 +20835,11 @@
       </c>
       <c r="F124" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="G124" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="H124" s="2" t="s">
         <v>143</v>
@@ -20948,11 +20857,11 @@
       </c>
       <c r="F125" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="G125" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="H125" s="2" t="s">
         <v>143</v>
@@ -20970,11 +20879,11 @@
       </c>
       <c r="F126" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="G126" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H126" s="2" t="s">
         <v>143</v>
@@ -20992,11 +20901,11 @@
       </c>
       <c r="F127" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="G127" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>81</v>
+        <v>37</v>
       </c>
       <c r="H127" s="2" t="s">
         <v>143</v>
@@ -21014,11 +20923,11 @@
       </c>
       <c r="F128" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="G128" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>86</v>
+        <v>45</v>
       </c>
       <c r="H128" s="2" t="s">
         <v>143</v>
@@ -21036,11 +20945,11 @@
       </c>
       <c r="F129" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="G129" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="H129" s="2" t="s">
         <v>143</v>
@@ -21058,11 +20967,11 @@
       </c>
       <c r="F130" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="G130" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H130" s="2" t="s">
         <v>143</v>
@@ -21080,11 +20989,11 @@
       </c>
       <c r="F131" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="G131" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="H131" s="2" t="s">
         <v>143</v>
@@ -21102,11 +21011,11 @@
       </c>
       <c r="F132" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="G132" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H132" s="2" t="s">
         <v>143</v>
@@ -21124,11 +21033,11 @@
       </c>
       <c r="F133" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="G133" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="H133" s="2" t="s">
         <v>143</v>
@@ -21146,11 +21055,11 @@
       </c>
       <c r="F134" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="G134" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="H134" s="2" t="s">
         <v>143</v>
@@ -21168,11 +21077,11 @@
       </c>
       <c r="F135" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G135" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="H135" s="2" t="s">
         <v>143</v>
@@ -21190,11 +21099,11 @@
       </c>
       <c r="F136" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="G136" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="H136" s="2" t="s">
         <v>143</v>
@@ -21212,11 +21121,11 @@
       </c>
       <c r="F137" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G137" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="H137" s="2" t="s">
         <v>143</v>
@@ -21238,7 +21147,7 @@
       </c>
       <c r="G138" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="H138" s="2" t="s">
         <v>143</v>
@@ -21256,11 +21165,11 @@
       </c>
       <c r="F139" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="G139" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H139" s="2" t="s">
         <v>143</v>
@@ -21278,11 +21187,11 @@
       </c>
       <c r="F140" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="G140" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="H140" s="2" t="s">
         <v>143</v>
@@ -21300,11 +21209,11 @@
       </c>
       <c r="F141" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="G141" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="H141" s="2" t="s">
         <v>143</v>
@@ -21322,11 +21231,11 @@
       </c>
       <c r="F142" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="G142" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H142" s="2" t="s">
         <v>143</v>
@@ -21344,7 +21253,7 @@
       </c>
       <c r="F143" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="G143" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -21366,11 +21275,11 @@
       </c>
       <c r="F144" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="G144" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H144" s="2" t="s">
         <v>143</v>
@@ -21388,11 +21297,11 @@
       </c>
       <c r="F145" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G145" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="H145" s="2" t="s">
         <v>143</v>
@@ -21410,11 +21319,11 @@
       </c>
       <c r="F146" s="2">
         <f t="shared" ref="F146:G201" ca="1" si="3">RANDBETWEEN(0,100)</f>
-        <v>35</v>
+        <v>98</v>
       </c>
       <c r="G146" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="H146" s="2" t="s">
         <v>143</v>
@@ -21432,11 +21341,11 @@
       </c>
       <c r="F147" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G147" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>74</v>
+        <v>23</v>
       </c>
       <c r="H147" s="2" t="s">
         <v>143</v>
@@ -21454,11 +21363,11 @@
       </c>
       <c r="F148" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>89</v>
+        <v>30</v>
       </c>
       <c r="G148" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="H148" s="2" t="s">
         <v>143</v>
@@ -21476,11 +21385,11 @@
       </c>
       <c r="F149" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="G149" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H149" s="2" t="s">
         <v>143</v>
@@ -21498,11 +21407,11 @@
       </c>
       <c r="F150" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G150" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="H150" s="2" t="s">
         <v>143</v>
@@ -21520,11 +21429,11 @@
       </c>
       <c r="F151" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="G151" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="H151" s="2" t="s">
         <v>473</v>
@@ -21542,11 +21451,11 @@
       </c>
       <c r="F152" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G152" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H152" s="2" t="s">
         <v>473</v>
@@ -21564,11 +21473,11 @@
       </c>
       <c r="F153" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G153" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="H153" s="2" t="s">
         <v>473</v>
@@ -21586,11 +21495,11 @@
       </c>
       <c r="F154" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="G154" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="H154" s="2" t="s">
         <v>473</v>
@@ -21608,11 +21517,11 @@
       </c>
       <c r="F155" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="G155" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="H155" s="2" t="s">
         <v>473</v>
@@ -21630,11 +21539,11 @@
       </c>
       <c r="F156" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>79</v>
+        <v>30</v>
       </c>
       <c r="G156" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>17</v>
+        <v>87</v>
       </c>
       <c r="H156" s="2" t="s">
         <v>473</v>
@@ -21652,11 +21561,11 @@
       </c>
       <c r="F157" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="G157" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="H157" s="2" t="s">
         <v>473</v>
@@ -21678,7 +21587,7 @@
       </c>
       <c r="G158" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H158" s="2" t="s">
         <v>473</v>
@@ -21696,11 +21605,11 @@
       </c>
       <c r="F159" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="G159" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="H159" s="2" t="s">
         <v>473</v>
@@ -21718,11 +21627,11 @@
       </c>
       <c r="F160" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G160" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="H160" s="2" t="s">
         <v>473</v>
@@ -21740,11 +21649,11 @@
       </c>
       <c r="F161" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="G161" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>94</v>
+        <v>27</v>
       </c>
       <c r="H161" s="2" t="s">
         <v>473</v>
@@ -21762,11 +21671,11 @@
       </c>
       <c r="F162" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="G162" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="H162" s="2" t="s">
         <v>473</v>
@@ -21784,11 +21693,11 @@
       </c>
       <c r="F163" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="G163" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="H163" s="2" t="s">
         <v>473</v>
@@ -21806,11 +21715,11 @@
       </c>
       <c r="F164" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="G164" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H164" s="2" t="s">
         <v>473</v>
@@ -21828,11 +21737,11 @@
       </c>
       <c r="F165" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="G165" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="H165" s="2" t="s">
         <v>473</v>
@@ -21850,11 +21759,11 @@
       </c>
       <c r="F166" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G166" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="H166" s="2" t="s">
         <v>473</v>
@@ -21872,11 +21781,11 @@
       </c>
       <c r="F167" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="G167" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="H167" s="2" t="s">
         <v>473</v>
@@ -21894,11 +21803,11 @@
       </c>
       <c r="F168" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="G168" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="H168" s="2" t="s">
         <v>473</v>
@@ -21916,11 +21825,11 @@
       </c>
       <c r="F169" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="G169" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="H169" s="2" t="s">
         <v>473</v>
@@ -21938,11 +21847,11 @@
       </c>
       <c r="F170" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="G170" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="H170" s="2" t="s">
         <v>473</v>
@@ -21960,11 +21869,11 @@
       </c>
       <c r="F171" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G171" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H171" s="2" t="s">
         <v>473</v>
@@ -21982,11 +21891,11 @@
       </c>
       <c r="F172" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="G172" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H172" s="2" t="s">
         <v>473</v>
@@ -22004,11 +21913,11 @@
       </c>
       <c r="F173" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="G173" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H173" s="2" t="s">
         <v>473</v>
@@ -22026,11 +21935,11 @@
       </c>
       <c r="F174" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="G174" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H174" s="2" t="s">
         <v>473</v>
@@ -22048,11 +21957,11 @@
       </c>
       <c r="F175" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="G175" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="H175" s="2" t="s">
         <v>473</v>
@@ -22070,11 +21979,11 @@
       </c>
       <c r="F176" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="G176" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>98</v>
+        <v>11</v>
       </c>
       <c r="H176" s="2" t="s">
         <v>473</v>
@@ -22092,11 +22001,11 @@
       </c>
       <c r="F177" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="G177" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="H177" s="2" t="s">
         <v>473</v>
@@ -22114,11 +22023,11 @@
       </c>
       <c r="F178" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="G178" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="H178" s="2" t="s">
         <v>473</v>
@@ -22136,11 +22045,11 @@
       </c>
       <c r="F179" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G179" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="H179" s="2" t="s">
         <v>473</v>
@@ -22158,11 +22067,11 @@
       </c>
       <c r="F180" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="G180" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="H180" s="2" t="s">
         <v>473</v>
@@ -22180,11 +22089,11 @@
       </c>
       <c r="F181" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="G181" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="H181" s="2" t="s">
         <v>473</v>
@@ -22202,11 +22111,11 @@
       </c>
       <c r="F182" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="G182" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="H182" s="2" t="s">
         <v>473</v>
@@ -22224,11 +22133,11 @@
       </c>
       <c r="F183" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="G183" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="H183" s="2" t="s">
         <v>473</v>
@@ -22246,11 +22155,11 @@
       </c>
       <c r="F184" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="G184" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>80</v>
       </c>
       <c r="H184" s="2" t="s">
         <v>473</v>
@@ -22268,11 +22177,11 @@
       </c>
       <c r="F185" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="G185" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="H185" s="2" t="s">
         <v>473</v>
@@ -22290,11 +22199,11 @@
       </c>
       <c r="F186" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="G186" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="H186" s="2" t="s">
         <v>473</v>
@@ -22312,11 +22221,11 @@
       </c>
       <c r="F187" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="G187" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="H187" s="2" t="s">
         <v>473</v>
@@ -22334,11 +22243,11 @@
       </c>
       <c r="F188" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="G188" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H188" s="2" t="s">
         <v>473</v>
@@ -22356,11 +22265,11 @@
       </c>
       <c r="F189" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>93</v>
+        <v>28</v>
       </c>
       <c r="G189" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="H189" s="2" t="s">
         <v>473</v>
@@ -22378,11 +22287,11 @@
       </c>
       <c r="F190" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="G190" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="H190" s="2" t="s">
         <v>473</v>
@@ -22400,11 +22309,11 @@
       </c>
       <c r="F191" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="G191" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="H191" s="2" t="s">
         <v>473</v>
@@ -22422,11 +22331,11 @@
       </c>
       <c r="F192" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="G192" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="H192" s="2" t="s">
         <v>473</v>
@@ -22444,11 +22353,11 @@
       </c>
       <c r="F193" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G193" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="H193" s="2" t="s">
         <v>473</v>
@@ -22466,11 +22375,11 @@
       </c>
       <c r="F194" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>71</v>
       </c>
       <c r="G194" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="H194" s="2" t="s">
         <v>473</v>
@@ -22488,11 +22397,11 @@
       </c>
       <c r="F195" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="G195" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="H195" s="2" t="s">
         <v>473</v>
@@ -22510,11 +22419,11 @@
       </c>
       <c r="F196" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="G196" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="H196" s="2" t="s">
         <v>473</v>
@@ -22532,11 +22441,11 @@
       </c>
       <c r="F197" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="G197" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="H197" s="2" t="s">
         <v>473</v>
@@ -22554,11 +22463,11 @@
       </c>
       <c r="F198" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="G198" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H198" s="2" t="s">
         <v>473</v>
@@ -22576,11 +22485,11 @@
       </c>
       <c r="F199" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>89</v>
+        <v>17</v>
       </c>
       <c r="G199" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="H199" s="2" t="s">
         <v>473</v>
@@ -22601,11 +22510,11 @@
       </c>
       <c r="F200" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="G200" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="H200" s="2" t="s">
         <v>473</v>
@@ -22626,11 +22535,11 @@
       </c>
       <c r="F201" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="G201" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="H201" s="2" t="s">
         <v>473</v>
